--- a/HTML/P1 Excel.xlsx
+++ b/HTML/P1 Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3C3B26-80ED-4108-AFA1-950B4AB569B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F4A6F8-ECE1-4DFA-A745-B031BE8428A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="211">
   <si>
     <t>PHP Ref</t>
   </si>
@@ -625,13 +625,55 @@
   <si>
     <t>محمد مصطفى 
 - تصميم</t>
+  </si>
+  <si>
+    <t>Dynamics</t>
+  </si>
+  <si>
+    <t>Power Apps</t>
+  </si>
+  <si>
+    <t>Share Point</t>
+  </si>
+  <si>
+    <t>Power Bi</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>ASP NET</t>
+  </si>
+  <si>
+    <t>Microsoft Learn</t>
+  </si>
+  <si>
+    <t>https://devoworx.net</t>
+  </si>
+  <si>
+    <t>https://debug.to</t>
+  </si>
+  <si>
+    <t>Youtube| Fouad Zawadi</t>
+  </si>
+  <si>
+    <t>Facebook| Power Platform</t>
+  </si>
+  <si>
+    <t>Youtube| ERP Consultants</t>
+  </si>
+  <si>
+    <t>Youtube| Power Apps</t>
+  </si>
+  <si>
+    <t>Youtube| Power Platform</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,6 +778,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -859,7 +909,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -955,6 +1005,9 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -970,8 +1023,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1256,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1893,22 +1952,22 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2047,13 +2106,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
@@ -2075,25 +2134,166 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408A403A-76AA-44D6-B5E6-C307F1214717}">
-  <dimension ref="I1:J1"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="17.140625" style="15"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="9:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="I1" s="6"/>
-      <c r="J1" s="5" t="s">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>11</v>
       </c>
+      <c r="G1" s="39"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J1" location="Dashboard!A1" display="Back" xr:uid="{2ED13176-37D8-4E25-A9EA-557973EEAFC2}"/>
+    <hyperlink ref="E1" location="Dashboard!A1" display="Back" xr:uid="{2ED13176-37D8-4E25-A9EA-557973EEAFC2}"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{26606878-05CE-4034-AEA3-D12B5D9B6BCA}"/>
+    <hyperlink ref="B1" r:id="rId2" xr:uid="{738F047D-58CC-41B9-8C9C-F5075ED3307E}"/>
+    <hyperlink ref="C1" r:id="rId3" xr:uid="{8139704A-7B46-49EA-97CF-1130B59301A0}"/>
+    <hyperlink ref="D1" r:id="rId4" xr:uid="{2AC00275-60C6-4A74-B5E4-5C0F717B5923}"/>
+    <hyperlink ref="A3" r:id="rId5" xr:uid="{30E1A108-2237-45FB-B557-6F3E0A7AB13B}"/>
+    <hyperlink ref="B3" r:id="rId6" xr:uid="{742100F8-AF9F-40E1-B628-B8A13266D30D}"/>
+    <hyperlink ref="E3" r:id="rId7" xr:uid="{F1752469-4520-4A9A-8DD1-70BAF9877383}"/>
+    <hyperlink ref="A7" r:id="rId8" display="Facebook | Power Platform" xr:uid="{F96E8DDE-29EB-43E4-BFF3-38B688D2E4D0}"/>
+    <hyperlink ref="A9" r:id="rId9" display="Youtube |  Microsoft Power Apps" xr:uid="{7ABF023A-04D9-4DE2-9917-9AF179B9B875}"/>
+    <hyperlink ref="A10" r:id="rId10" display="Youtube | Fouad Zawadi" xr:uid="{7A321587-6356-4BAF-935E-A8E5D9157507}"/>
+    <hyperlink ref="A11" r:id="rId11" display="Shaban D365" xr:uid="{A063E583-4868-4490-9C32-15A6AE1A104F}"/>
+    <hyperlink ref="A8" r:id="rId12" display="Microsoft Power Platform" xr:uid="{A8FEFDCD-288F-4173-9CF5-5EA8D81087C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -3211,10 +3411,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A19292-1EE5-456C-BFD4-2A064F7E975B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3222,14 +3422,18 @@
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>196</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://www.youtube.com/@MohamadMustafa/videos" xr:uid="{CDBB8CD1-F064-4F14-89D3-77D79FF13E00}"/>
+    <hyperlink ref="G1" location="Dashboard!A1" display="Back" xr:uid="{EF1966A7-6FBA-4FD7-851B-7086BF97A2E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/HTML/P1 Excel.xlsx
+++ b/HTML/P1 Excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F4A6F8-ECE1-4DFA-A745-B031BE8428A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CA8DA8-D693-4218-B5BE-231C501E47AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="213">
   <si>
     <t>PHP Ref</t>
   </si>
@@ -667,6 +667,13 @@
   </si>
   <si>
     <t>Youtube| Power Platform</t>
+  </si>
+  <si>
+    <t>Problem Solving 
+&amp; Challenges</t>
+  </si>
+  <si>
+    <t>UI - UX</t>
   </si>
 </sst>
 </file>
@@ -791,7 +798,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -825,6 +832,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,7 +928,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -984,30 +1003,18 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1023,14 +1030,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1315,86 +1340,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="16.85546875" style="28" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="28" customWidth="1"/>
-    <col min="10" max="16384" width="16.140625" style="28"/>
+    <col min="1" max="1" width="19.7109375" style="36" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="36" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="36" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" style="36" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="36" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="36" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="36" customWidth="1"/>
+    <col min="11" max="16384" width="16.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="24" t="s">
         <v>114</v>
       </c>
       <c r="I1" s="24"/>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="35" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>122</v>
       </c>
       <c r="I2" s="24"/>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="26"/>
-    </row>
-    <row r="3" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="K2" s="38"/>
+    </row>
+    <row r="3" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>128</v>
       </c>
       <c r="D3" s="24"/>
@@ -1403,10 +1436,10 @@
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="K3" s="8"/>
+      <c r="K3" s="38"/>
     </row>
     <row r="4" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
@@ -1419,63 +1452,65 @@
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="K4" s="38"/>
+    </row>
+    <row r="5" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="C5" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="D5" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="E5" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="F5" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="G5" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="H5" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="I5" s="24"/>
+      <c r="J5" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="38"/>
+    </row>
+    <row r="6" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="27" t="s">
+      <c r="C6" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="D6" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="E6" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="F6" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="24"/>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="8"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
@@ -1487,97 +1522,99 @@
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="K7" s="38"/>
+    </row>
+    <row r="8" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="E8" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="G8" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="H8" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="I8" s="24"/>
+      <c r="J8" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="K8" s="38"/>
+    </row>
+    <row r="9" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="E9" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="F9" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="G9" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="H9" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="I9" s="24"/>
+      <c r="J9" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="38"/>
+    </row>
+    <row r="10" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="24"/>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="8"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="38"/>
     </row>
     <row r="11" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
@@ -1589,114 +1626,114 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="J11" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" s="38"/>
+    </row>
+    <row r="12" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="40" t="s">
         <v>172</v>
       </c>
       <c r="I12" s="24"/>
-      <c r="J12" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="J12" s="24"/>
+      <c r="K12" s="38"/>
+    </row>
+    <row r="13" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="40" t="s">
         <v>180</v>
       </c>
       <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="J13" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="K13" s="38"/>
+    </row>
+    <row r="14" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="40" t="s">
         <v>188</v>
       </c>
       <c r="I14" s="24"/>
-      <c r="J14" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="J14" s="24"/>
+      <c r="K14" s="38"/>
+    </row>
+    <row r="15" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="40" t="s">
         <v>193</v>
       </c>
       <c r="F15" s="24"/>
@@ -1704,7 +1741,7 @@
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
-      <c r="K15" s="8"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
@@ -1717,14 +1754,14 @@
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
-      <c r="K16" s="8"/>
+      <c r="K16" s="38"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J5" location="PHP!A1" display="PHP" xr:uid="{44AF98E1-2BA9-40A1-BD82-41C9458E11F5}"/>
     <hyperlink ref="J6" location="JS!A1" display="JS" xr:uid="{B324B7D1-0977-4A7C-BDA4-D5C04D851575}"/>
     <hyperlink ref="J7" location="Microsoft!A1" display="Microsoft" xr:uid="{F1435990-D8AF-48BF-9974-4087602915F6}"/>
-    <hyperlink ref="J10" location="Py!A1" display="Python" xr:uid="{7A9A1D61-9968-4703-AC9A-7723553AE43A}"/>
+    <hyperlink ref="J9" location="Py!A1" display="Python" xr:uid="{7A9A1D61-9968-4703-AC9A-7723553AE43A}"/>
     <hyperlink ref="J2" location="Software!A1" display="Other Software" xr:uid="{6D48D2BD-A81D-41A6-A29F-7F33245D14B0}"/>
     <hyperlink ref="J1" location="Tips!A1" display="Tips" xr:uid="{940BB4A2-BBAE-40CF-ACD9-721619CA8388}"/>
     <hyperlink ref="A1" r:id="rId1" display="https://www.jenkins.io/" xr:uid="{3E7B1E85-45A6-4B7F-8C70-DADE2615BCF5}"/>
@@ -1747,36 +1784,36 @@
     <hyperlink ref="J8" r:id="rId18" display="https://en.cppreference.com/" xr:uid="{3C0FEF83-6094-4FBF-A0D5-BE9315C53148}"/>
     <hyperlink ref="E2" r:id="rId19" display="https://www.rust-lang.org/" xr:uid="{31F1428D-91BE-4E1E-8498-4229EFCDF440}"/>
     <hyperlink ref="C3" r:id="rId20" display="https://pusher.com/" xr:uid="{7C3CDB02-6919-4E87-A0F9-55BD4F0A908D}"/>
-    <hyperlink ref="J12" r:id="rId21" display="https://build-your-own-x.vercel.app/" xr:uid="{42FD690D-C616-49BD-BA77-2B0CB6A5BDE7}"/>
-    <hyperlink ref="A5" r:id="rId22" display="https://www.beecrowd.com.br/judge/en" xr:uid="{0EEDE18D-2698-4E47-BD0D-B25EC1D74163}"/>
-    <hyperlink ref="B5" r:id="rId23" display="https://www.topcoder.com/" xr:uid="{99D28B14-BAE6-4D52-9110-003BBD91B8E2}"/>
-    <hyperlink ref="C5" r:id="rId24" display="http://codeforces.com/" xr:uid="{FC3032FE-C684-4E70-B2EC-6FBCFEEDE393}"/>
-    <hyperlink ref="D5" r:id="rId25" display="https://cses.fi/problemset" xr:uid="{509A38B5-A17C-433A-8AC1-7792940D057E}"/>
-    <hyperlink ref="E5" r:id="rId26" display="https://www.codechef.com/" xr:uid="{1775B098-414A-43C3-838D-78141B33AAC9}"/>
-    <hyperlink ref="F5" r:id="rId27" display="https://leetcode.com/" xr:uid="{E0D07D3E-39C6-4A4D-94FA-6ACB936C1AFD}"/>
-    <hyperlink ref="G5" r:id="rId28" display="https://vjudge.net/" xr:uid="{EBC603BE-A70E-43F5-8EEA-B191084AC9CB}"/>
-    <hyperlink ref="H5" r:id="rId29" display="https://www.hackerrank.com/" xr:uid="{226E0E1B-6696-44E9-A1E9-35AA53DBC2C4}"/>
+    <hyperlink ref="J11" r:id="rId21" display="https://build-your-own-x.vercel.app/" xr:uid="{42FD690D-C616-49BD-BA77-2B0CB6A5BDE7}"/>
+    <hyperlink ref="B5" r:id="rId22" display="https://www.beecrowd.com.br/judge/en" xr:uid="{0EEDE18D-2698-4E47-BD0D-B25EC1D74163}"/>
+    <hyperlink ref="C5" r:id="rId23" display="https://www.topcoder.com/" xr:uid="{99D28B14-BAE6-4D52-9110-003BBD91B8E2}"/>
+    <hyperlink ref="D5" r:id="rId24" display="http://codeforces.com/" xr:uid="{FC3032FE-C684-4E70-B2EC-6FBCFEEDE393}"/>
+    <hyperlink ref="E5" r:id="rId25" display="https://cses.fi/problemset" xr:uid="{509A38B5-A17C-433A-8AC1-7792940D057E}"/>
+    <hyperlink ref="F5" r:id="rId26" display="https://www.codechef.com/" xr:uid="{1775B098-414A-43C3-838D-78141B33AAC9}"/>
+    <hyperlink ref="G5" r:id="rId27" display="https://leetcode.com/" xr:uid="{E0D07D3E-39C6-4A4D-94FA-6ACB936C1AFD}"/>
+    <hyperlink ref="H5" r:id="rId28" display="https://vjudge.net/" xr:uid="{EBC603BE-A70E-43F5-8EEA-B191084AC9CB}"/>
+    <hyperlink ref="B6" r:id="rId29" display="https://www.hackerrank.com/" xr:uid="{226E0E1B-6696-44E9-A1E9-35AA53DBC2C4}"/>
     <hyperlink ref="A6" r:id="rId30" display="https://www.kaggle.com/" xr:uid="{860FD63F-42BF-46F0-9E7C-386F95ED55BE}"/>
-    <hyperlink ref="B6" r:id="rId31" display="https://www.codewars.com/dashboard" xr:uid="{EAD0543E-BCB9-4175-8530-05B4E2CE966D}"/>
-    <hyperlink ref="C6" r:id="rId32" display="https://codepen.io/" xr:uid="{2DAB091D-A9A1-444C-B2E9-114A50D34973}"/>
-    <hyperlink ref="D6" r:id="rId33" display="https://coderbyte.com/" xr:uid="{533F8354-B98C-4ACB-B9B2-69E26C71D4D1}"/>
-    <hyperlink ref="E6" r:id="rId34" display="https://icpc.global/" xr:uid="{5D042A5F-D90E-441E-9735-04987766B64A}"/>
-    <hyperlink ref="A8" r:id="rId35" display="https://zeplin.io/" xr:uid="{8EA3DE31-4C86-4A13-8C37-6F3A382CDF16}"/>
-    <hyperlink ref="B8" r:id="rId36" display="https://material-ui.com/" xr:uid="{2A281D4A-D8E9-4C90-AB52-2111AE0DEB23}"/>
-    <hyperlink ref="C8" r:id="rId37" display="https://dribbble.com/" xr:uid="{E58D1D30-C957-4340-81F7-9F01F135640E}"/>
-    <hyperlink ref="D8" r:id="rId38" display="https://codemyui.com/" xr:uid="{5B4A2141-C621-4E6C-A301-217163645D68}"/>
-    <hyperlink ref="E8" r:id="rId39" display="https://www.creative-tim.com/templates/flutter" xr:uid="{2911586A-4800-4D34-AF2A-196754F8EF76}"/>
-    <hyperlink ref="F8" r:id="rId40" display="https://icomoon.io/" xr:uid="{3A8C4CC8-0C66-4E99-A235-37A1F05C0762}"/>
-    <hyperlink ref="G8" r:id="rId41" display="https://fontawesome.com/" xr:uid="{8001446B-0F93-4A57-8F51-39F76B014F68}"/>
-    <hyperlink ref="H8" r:id="rId42" display="https://www.figma.com/" xr:uid="{90F3821A-0629-4665-A7CC-B08CA9824852}"/>
-    <hyperlink ref="A9" r:id="rId43" display="https://sass-lang.com/" xr:uid="{6EE1D0F2-A5C9-4767-8B70-ABFA413F8BA8}"/>
-    <hyperlink ref="B9" r:id="rId44" display="https://www.frontendmentor.io/" xr:uid="{B60D4251-B1EB-4FEB-8953-663DCC50F9A7}"/>
-    <hyperlink ref="C9" r:id="rId45" display="https://themeforest.net/" xr:uid="{9D070C9B-A21C-4100-A927-0B5D92E135EC}"/>
-    <hyperlink ref="D9" r:id="rId46" display="https://tailwindcss.com/docs" xr:uid="{77277A14-B688-4C98-87D1-04E090A5A61C}"/>
-    <hyperlink ref="E9" r:id="rId47" display="https://mdbootstrap.com/" xr:uid="{F9DED750-2E37-4BC7-9A31-965C8F7A075F}"/>
-    <hyperlink ref="F9" r:id="rId48" display="https://getbootstrap.com/" xr:uid="{9BAB0D38-E547-47C3-9AA9-6A5648663712}"/>
-    <hyperlink ref="G9" r:id="rId49" display="https://proto.io/" xr:uid="{A6CF53DC-1868-4E98-8E4C-DA132BD085D5}"/>
-    <hyperlink ref="H9" r:id="rId50" display="https://bulma.io/" xr:uid="{85A74973-A001-42DD-B946-16F74AA5A2A6}"/>
+    <hyperlink ref="C6" r:id="rId31" display="https://www.codewars.com/dashboard" xr:uid="{EAD0543E-BCB9-4175-8530-05B4E2CE966D}"/>
+    <hyperlink ref="D6" r:id="rId32" display="https://codepen.io/" xr:uid="{2DAB091D-A9A1-444C-B2E9-114A50D34973}"/>
+    <hyperlink ref="E6" r:id="rId33" display="https://coderbyte.com/" xr:uid="{533F8354-B98C-4ACB-B9B2-69E26C71D4D1}"/>
+    <hyperlink ref="F6" r:id="rId34" display="https://icpc.global/" xr:uid="{5D042A5F-D90E-441E-9735-04987766B64A}"/>
+    <hyperlink ref="B8" r:id="rId35" display="https://zeplin.io/" xr:uid="{8EA3DE31-4C86-4A13-8C37-6F3A382CDF16}"/>
+    <hyperlink ref="C8" r:id="rId36" display="https://material-ui.com/" xr:uid="{2A281D4A-D8E9-4C90-AB52-2111AE0DEB23}"/>
+    <hyperlink ref="D8" r:id="rId37" display="https://dribbble.com/" xr:uid="{E58D1D30-C957-4340-81F7-9F01F135640E}"/>
+    <hyperlink ref="E8" r:id="rId38" display="https://codemyui.com/" xr:uid="{5B4A2141-C621-4E6C-A301-217163645D68}"/>
+    <hyperlink ref="F8" r:id="rId39" display="https://www.creative-tim.com/templates/flutter" xr:uid="{2911586A-4800-4D34-AF2A-196754F8EF76}"/>
+    <hyperlink ref="G8" r:id="rId40" display="https://icomoon.io/" xr:uid="{3A8C4CC8-0C66-4E99-A235-37A1F05C0762}"/>
+    <hyperlink ref="H8" r:id="rId41" display="https://fontawesome.com/" xr:uid="{8001446B-0F93-4A57-8F51-39F76B014F68}"/>
+    <hyperlink ref="A9" r:id="rId42" display="https://www.figma.com/" xr:uid="{90F3821A-0629-4665-A7CC-B08CA9824852}"/>
+    <hyperlink ref="B9" r:id="rId43" display="https://sass-lang.com/" xr:uid="{6EE1D0F2-A5C9-4767-8B70-ABFA413F8BA8}"/>
+    <hyperlink ref="C9" r:id="rId44" display="https://www.frontendmentor.io/" xr:uid="{B60D4251-B1EB-4FEB-8953-663DCC50F9A7}"/>
+    <hyperlink ref="D9" r:id="rId45" display="https://themeforest.net/" xr:uid="{9D070C9B-A21C-4100-A927-0B5D92E135EC}"/>
+    <hyperlink ref="E9" r:id="rId46" display="https://tailwindcss.com/docs" xr:uid="{77277A14-B688-4C98-87D1-04E090A5A61C}"/>
+    <hyperlink ref="F9" r:id="rId47" display="https://mdbootstrap.com/" xr:uid="{F9DED750-2E37-4BC7-9A31-965C8F7A075F}"/>
+    <hyperlink ref="G9" r:id="rId48" display="https://getbootstrap.com/" xr:uid="{9BAB0D38-E547-47C3-9AA9-6A5648663712}"/>
+    <hyperlink ref="H9" r:id="rId49" display="https://proto.io/" xr:uid="{A6CF53DC-1868-4E98-8E4C-DA132BD085D5}"/>
+    <hyperlink ref="G10" r:id="rId50" display="https://bulma.io/" xr:uid="{85A74973-A001-42DD-B946-16F74AA5A2A6}"/>
     <hyperlink ref="A10" r:id="rId51" display="https://search.google.com/test/mobile-friendly" xr:uid="{2B5991D7-98EE-4C5F-8205-F56BFC40E559}"/>
     <hyperlink ref="B10" r:id="rId52" display="https://www.logomaker.com/" xr:uid="{7F46DEA1-1F48-4EE9-97A6-0BE55F8D409C}"/>
     <hyperlink ref="C10" r:id="rId53" display="https://animate.style/" xr:uid="{7572769C-AA1A-490B-8620-AAC195AE1218}"/>
@@ -1813,7 +1850,7 @@
     <hyperlink ref="D15" r:id="rId84" display="https://www.doctrine-project.org/" xr:uid="{FFA81CFF-4BFA-4736-B7D1-880CF857C7CD}"/>
     <hyperlink ref="E15" r:id="rId85" display="https://www.geeksforgeeks.org/" xr:uid="{D0A509FC-5465-41FC-BAB9-8F0199EDFD2D}"/>
     <hyperlink ref="J3" location="'3D Priniting'!A1" display="3D Printing" xr:uid="{7C61BBEB-E024-472E-BA9A-009DD42130FE}"/>
-    <hyperlink ref="J14" location="Graphics!A1" display="Graphics" xr:uid="{67C2FAD7-DC93-42E0-8064-56B5608F2B23}"/>
+    <hyperlink ref="J13" location="Graphics!A1" display="Graphics" xr:uid="{67C2FAD7-DC93-42E0-8064-56B5608F2B23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId86"/>
@@ -1952,22 +1989,22 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2106,13 +2143,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
@@ -2148,133 +2185,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="39"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="40" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="28" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3423,7 +3460,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="26" t="s">
         <v>196</v>
       </c>
       <c r="G1" s="5" t="s">

--- a/HTML/P1 Excel.xlsx
+++ b/HTML/P1 Excel.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CA8DA8-D693-4218-B5BE-231C501E47AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07D7E896-E3E8-47CF-B3E0-F7DBE9CD8DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
-    <sheet name="PHP" sheetId="2" r:id="rId2"/>
-    <sheet name="JS" sheetId="3" r:id="rId3"/>
-    <sheet name="Microsoft" sheetId="4" r:id="rId4"/>
-    <sheet name="3D Priniting" sheetId="5" r:id="rId5"/>
-    <sheet name="Py" sheetId="6" r:id="rId6"/>
-    <sheet name="Tips" sheetId="9" r:id="rId7"/>
-    <sheet name="Software" sheetId="7" r:id="rId8"/>
-    <sheet name="Graphics" sheetId="10" r:id="rId9"/>
+    <sheet name="Problem Solving" sheetId="11" r:id="rId2"/>
+    <sheet name="PHP" sheetId="2" r:id="rId3"/>
+    <sheet name="JS" sheetId="3" r:id="rId4"/>
+    <sheet name="Microsoft" sheetId="4" r:id="rId5"/>
+    <sheet name="3D Priniting" sheetId="5" r:id="rId6"/>
+    <sheet name="Py" sheetId="6" r:id="rId7"/>
+    <sheet name="Tips" sheetId="9" r:id="rId8"/>
+    <sheet name="Software" sheetId="7" r:id="rId9"/>
+    <sheet name="Graphics" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="214">
   <si>
     <t>PHP Ref</t>
   </si>
@@ -642,9 +643,6 @@
     <t>C#</t>
   </si>
   <si>
-    <t>ASP NET</t>
-  </si>
-  <si>
     <t>Microsoft Learn</t>
   </si>
   <si>
@@ -674,13 +672,19 @@
   </si>
   <si>
     <t>UI - UX</t>
+  </si>
+  <si>
+    <t>Databases</t>
+  </si>
+  <si>
+    <t>ASP.NET</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,14 +746,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -775,7 +771,44 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -783,22 +816,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -844,6 +869,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,7 +959,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -961,7 +992,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -979,40 +1010,70 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1030,32 +1091,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1338,432 +1387,361 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="36" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="36" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="36" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="36" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="36" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="36" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="36" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" style="36" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="36" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" style="36" customWidth="1"/>
-    <col min="11" max="16384" width="16.140625" style="36"/>
+    <col min="1" max="1" width="19.7109375" style="33" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="33" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="33" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" style="33" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="33" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="33" customWidth="1"/>
+    <col min="10" max="16384" width="16.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="35" t="s">
+      <c r="I1" s="32" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="37" t="s">
+      <c r="I2" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="35"/>
+    </row>
+    <row r="3" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="35"/>
+    </row>
+    <row r="4" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="35"/>
+    </row>
+    <row r="5" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="35"/>
+    </row>
+    <row r="6" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" s="35"/>
+    </row>
+    <row r="7" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="I7" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="35"/>
+    </row>
+    <row r="8" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="38"/>
-    </row>
-    <row r="3" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="37" t="s">
+      <c r="J8" s="35"/>
+    </row>
+    <row r="9" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="I9" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="K3" s="38"/>
-    </row>
-    <row r="4" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="38"/>
-    </row>
-    <row r="5" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
-        <v>211</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="38"/>
-    </row>
-    <row r="6" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="38"/>
-    </row>
-    <row r="7" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="38"/>
-    </row>
-    <row r="8" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="K8" s="38"/>
-    </row>
-    <row r="9" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" s="38"/>
-    </row>
-    <row r="10" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="38"/>
-    </row>
-    <row r="11" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="41" t="s">
+      <c r="J9" s="35"/>
+    </row>
+    <row r="10" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="I10" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="K11" s="38"/>
-    </row>
-    <row r="12" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="38"/>
-    </row>
-    <row r="13" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="41" t="s">
+      <c r="J10" s="35"/>
+    </row>
+    <row r="11" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="I11" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="K13" s="38"/>
-    </row>
-    <row r="14" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="38"/>
-    </row>
-    <row r="15" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B12" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C12" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D12" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E12" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="38"/>
-    </row>
-    <row r="16" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="38"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="35"/>
+    </row>
+    <row r="13" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="35"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J5" location="PHP!A1" display="PHP" xr:uid="{44AF98E1-2BA9-40A1-BD82-41C9458E11F5}"/>
-    <hyperlink ref="J6" location="JS!A1" display="JS" xr:uid="{B324B7D1-0977-4A7C-BDA4-D5C04D851575}"/>
-    <hyperlink ref="J7" location="Microsoft!A1" display="Microsoft" xr:uid="{F1435990-D8AF-48BF-9974-4087602915F6}"/>
-    <hyperlink ref="J9" location="Py!A1" display="Python" xr:uid="{7A9A1D61-9968-4703-AC9A-7723553AE43A}"/>
-    <hyperlink ref="J2" location="Software!A1" display="Other Software" xr:uid="{6D48D2BD-A81D-41A6-A29F-7F33245D14B0}"/>
-    <hyperlink ref="J1" location="Tips!A1" display="Tips" xr:uid="{940BB4A2-BBAE-40CF-ACD9-721619CA8388}"/>
+    <hyperlink ref="I5" location="PHP!A1" display="PHP" xr:uid="{44AF98E1-2BA9-40A1-BD82-41C9458E11F5}"/>
+    <hyperlink ref="I4" location="JS!A1" display="JS" xr:uid="{B324B7D1-0977-4A7C-BDA4-D5C04D851575}"/>
+    <hyperlink ref="I3" location="Microsoft!A1" display="Microsoft" xr:uid="{F1435990-D8AF-48BF-9974-4087602915F6}"/>
+    <hyperlink ref="I7" location="Py!A1" display="Python" xr:uid="{7A9A1D61-9968-4703-AC9A-7723553AE43A}"/>
+    <hyperlink ref="I8" location="Software!A1" display="Other Software" xr:uid="{6D48D2BD-A81D-41A6-A29F-7F33245D14B0}"/>
     <hyperlink ref="A1" r:id="rId1" display="https://www.jenkins.io/" xr:uid="{3E7B1E85-45A6-4B7F-8C70-DADE2615BCF5}"/>
     <hyperlink ref="B1" r:id="rId2" display="https://hub.docker.com/" xr:uid="{F91CC9AF-9D27-4120-ABDF-3DAA5D3A0540}"/>
     <hyperlink ref="C1" r:id="rId3" display="https://www.elastic.co/" xr:uid="{4BF3C7CD-37E8-4990-B50F-B0AA27995967}"/>
@@ -1781,83 +1759,185 @@
     <hyperlink ref="H2" r:id="rId15" display="https://dgraph.io/" xr:uid="{093C7231-5B52-479D-BC18-FC137E1C52DC}"/>
     <hyperlink ref="A3" r:id="rId16" display="https://www.graphql.com/" xr:uid="{C5BAE5E2-9F77-407D-8F6D-1A7440D4BEBA}"/>
     <hyperlink ref="B3" r:id="rId17" display="https://aws.amazon.com/" xr:uid="{7DAE6AD9-E9F6-4FA5-A1F4-218BFFB0DF55}"/>
-    <hyperlink ref="J8" r:id="rId18" display="https://en.cppreference.com/" xr:uid="{3C0FEF83-6094-4FBF-A0D5-BE9315C53148}"/>
+    <hyperlink ref="I6" r:id="rId18" display="https://en.cppreference.com/" xr:uid="{3C0FEF83-6094-4FBF-A0D5-BE9315C53148}"/>
     <hyperlink ref="E2" r:id="rId19" display="https://www.rust-lang.org/" xr:uid="{31F1428D-91BE-4E1E-8498-4229EFCDF440}"/>
     <hyperlink ref="C3" r:id="rId20" display="https://pusher.com/" xr:uid="{7C3CDB02-6919-4E87-A0F9-55BD4F0A908D}"/>
-    <hyperlink ref="J11" r:id="rId21" display="https://build-your-own-x.vercel.app/" xr:uid="{42FD690D-C616-49BD-BA77-2B0CB6A5BDE7}"/>
-    <hyperlink ref="B5" r:id="rId22" display="https://www.beecrowd.com.br/judge/en" xr:uid="{0EEDE18D-2698-4E47-BD0D-B25EC1D74163}"/>
-    <hyperlink ref="C5" r:id="rId23" display="https://www.topcoder.com/" xr:uid="{99D28B14-BAE6-4D52-9110-003BBD91B8E2}"/>
-    <hyperlink ref="D5" r:id="rId24" display="http://codeforces.com/" xr:uid="{FC3032FE-C684-4E70-B2EC-6FBCFEEDE393}"/>
-    <hyperlink ref="E5" r:id="rId25" display="https://cses.fi/problemset" xr:uid="{509A38B5-A17C-433A-8AC1-7792940D057E}"/>
-    <hyperlink ref="F5" r:id="rId26" display="https://www.codechef.com/" xr:uid="{1775B098-414A-43C3-838D-78141B33AAC9}"/>
-    <hyperlink ref="G5" r:id="rId27" display="https://leetcode.com/" xr:uid="{E0D07D3E-39C6-4A4D-94FA-6ACB936C1AFD}"/>
-    <hyperlink ref="H5" r:id="rId28" display="https://vjudge.net/" xr:uid="{EBC603BE-A70E-43F5-8EEA-B191084AC9CB}"/>
-    <hyperlink ref="B6" r:id="rId29" display="https://www.hackerrank.com/" xr:uid="{226E0E1B-6696-44E9-A1E9-35AA53DBC2C4}"/>
-    <hyperlink ref="A6" r:id="rId30" display="https://www.kaggle.com/" xr:uid="{860FD63F-42BF-46F0-9E7C-386F95ED55BE}"/>
-    <hyperlink ref="C6" r:id="rId31" display="https://www.codewars.com/dashboard" xr:uid="{EAD0543E-BCB9-4175-8530-05B4E2CE966D}"/>
-    <hyperlink ref="D6" r:id="rId32" display="https://codepen.io/" xr:uid="{2DAB091D-A9A1-444C-B2E9-114A50D34973}"/>
-    <hyperlink ref="E6" r:id="rId33" display="https://coderbyte.com/" xr:uid="{533F8354-B98C-4ACB-B9B2-69E26C71D4D1}"/>
-    <hyperlink ref="F6" r:id="rId34" display="https://icpc.global/" xr:uid="{5D042A5F-D90E-441E-9735-04987766B64A}"/>
-    <hyperlink ref="B8" r:id="rId35" display="https://zeplin.io/" xr:uid="{8EA3DE31-4C86-4A13-8C37-6F3A382CDF16}"/>
-    <hyperlink ref="C8" r:id="rId36" display="https://material-ui.com/" xr:uid="{2A281D4A-D8E9-4C90-AB52-2111AE0DEB23}"/>
-    <hyperlink ref="D8" r:id="rId37" display="https://dribbble.com/" xr:uid="{E58D1D30-C957-4340-81F7-9F01F135640E}"/>
-    <hyperlink ref="E8" r:id="rId38" display="https://codemyui.com/" xr:uid="{5B4A2141-C621-4E6C-A301-217163645D68}"/>
-    <hyperlink ref="F8" r:id="rId39" display="https://www.creative-tim.com/templates/flutter" xr:uid="{2911586A-4800-4D34-AF2A-196754F8EF76}"/>
-    <hyperlink ref="G8" r:id="rId40" display="https://icomoon.io/" xr:uid="{3A8C4CC8-0C66-4E99-A235-37A1F05C0762}"/>
-    <hyperlink ref="H8" r:id="rId41" display="https://fontawesome.com/" xr:uid="{8001446B-0F93-4A57-8F51-39F76B014F68}"/>
-    <hyperlink ref="A9" r:id="rId42" display="https://www.figma.com/" xr:uid="{90F3821A-0629-4665-A7CC-B08CA9824852}"/>
-    <hyperlink ref="B9" r:id="rId43" display="https://sass-lang.com/" xr:uid="{6EE1D0F2-A5C9-4767-8B70-ABFA413F8BA8}"/>
-    <hyperlink ref="C9" r:id="rId44" display="https://www.frontendmentor.io/" xr:uid="{B60D4251-B1EB-4FEB-8953-663DCC50F9A7}"/>
-    <hyperlink ref="D9" r:id="rId45" display="https://themeforest.net/" xr:uid="{9D070C9B-A21C-4100-A927-0B5D92E135EC}"/>
-    <hyperlink ref="E9" r:id="rId46" display="https://tailwindcss.com/docs" xr:uid="{77277A14-B688-4C98-87D1-04E090A5A61C}"/>
-    <hyperlink ref="F9" r:id="rId47" display="https://mdbootstrap.com/" xr:uid="{F9DED750-2E37-4BC7-9A31-965C8F7A075F}"/>
-    <hyperlink ref="G9" r:id="rId48" display="https://getbootstrap.com/" xr:uid="{9BAB0D38-E547-47C3-9AA9-6A5648663712}"/>
-    <hyperlink ref="H9" r:id="rId49" display="https://proto.io/" xr:uid="{A6CF53DC-1868-4E98-8E4C-DA132BD085D5}"/>
-    <hyperlink ref="G10" r:id="rId50" display="https://bulma.io/" xr:uid="{85A74973-A001-42DD-B946-16F74AA5A2A6}"/>
-    <hyperlink ref="A10" r:id="rId51" display="https://search.google.com/test/mobile-friendly" xr:uid="{2B5991D7-98EE-4C5F-8205-F56BFC40E559}"/>
-    <hyperlink ref="B10" r:id="rId52" display="https://www.logomaker.com/" xr:uid="{7F46DEA1-1F48-4EE9-97A6-0BE55F8D409C}"/>
-    <hyperlink ref="C10" r:id="rId53" display="https://animate.style/" xr:uid="{7572769C-AA1A-490B-8620-AAC195AE1218}"/>
-    <hyperlink ref="D10" r:id="rId54" location="EveningNight" display="https://uigradients.com/ - EveningNight" xr:uid="{24A14883-F186-4435-9FE3-E4D532A88C33}"/>
-    <hyperlink ref="E10" r:id="rId55" display="https://www.sketch.com/" xr:uid="{B06AD9DD-AEB6-4741-8392-AF45AF4A6A64}"/>
-    <hyperlink ref="F10" r:id="rId56" display="https://greensock.com/" xr:uid="{0774AAC7-BA9C-4316-94F4-8100D8CFCA0A}"/>
-    <hyperlink ref="A12" r:id="rId57" display="https://stackoverflow.com/" xr:uid="{16EA2AF4-4439-429E-B542-7607F7BB7819}"/>
-    <hyperlink ref="B12" r:id="rId58" display="https://www.tutorialspoint.com/index.htm" xr:uid="{09D69CF6-0447-4C34-B494-2C4043285EB3}"/>
-    <hyperlink ref="C12" r:id="rId59" display="https://egghead.io/" xr:uid="{C8CC39C2-700D-484F-9CC9-206C50AA21B9}"/>
-    <hyperlink ref="D12" r:id="rId60" display="https://www.programiz.com/" xr:uid="{7752618E-3326-45FF-A366-08D7E0F63AD4}"/>
-    <hyperlink ref="E12" r:id="rId61" display="https://www.javatpoint.com/" xr:uid="{736D958C-352D-4298-B057-624F86F96B0C}"/>
-    <hyperlink ref="F12" r:id="rId62" display="https://goalkicker.com/" xr:uid="{8E4DDCA7-D2AF-4E5C-A85D-1B955FBB5290}"/>
-    <hyperlink ref="G12" r:id="rId63" display="https://exercism.org/tracks" xr:uid="{F0A10DD1-E665-43B9-87AE-9BBC70376E10}"/>
-    <hyperlink ref="H12" r:id="rId64" display="https://www.computerscience.org/careers" xr:uid="{441D6B98-3851-4BB2-8529-6528FDC5C18E}"/>
-    <hyperlink ref="A13" r:id="rId65" display="https://refactoring.guru/design-patterns/php" xr:uid="{C415F922-5A58-43C4-8573-57A7908F38A6}"/>
-    <hyperlink ref="B13" r:id="rId66" display="https://www.developerdrive.com/" xr:uid="{F8CD949A-3C75-4681-B472-61FF5CE03BAC}"/>
-    <hyperlink ref="C13" r:id="rId67" display="https://www.patterns.dev/" xr:uid="{65910F9E-1989-4C3F-A34E-08318B0CA088}"/>
-    <hyperlink ref="D13" r:id="rId68" display="https://hackr.io/" xr:uid="{9685C4B9-B049-4583-ACC0-C0F9FC57BECD}"/>
-    <hyperlink ref="E13" r:id="rId69" display="https://beginnersbook.com/" xr:uid="{4CD25EDD-6BE6-43D5-B13D-4D300C41151A}"/>
-    <hyperlink ref="F13" r:id="rId70" display="https://dzone.com/" xr:uid="{D832834C-E87C-42FD-A1EA-39F2C9CFC2FF}"/>
-    <hyperlink ref="G13" r:id="rId71" display="https://www.freecodecamp.org/" xr:uid="{BCAE37E8-512C-45CF-B432-5A1FEE0CC745}"/>
-    <hyperlink ref="H13" r:id="rId72" display="https://www.algoexpert.io/product" xr:uid="{66DDDBDB-7862-4058-98D4-B532BE637B6D}"/>
-    <hyperlink ref="A14" r:id="rId73" display="https://stackshare.io/" xr:uid="{C382B2DA-8A91-4100-9552-C06D6C86D2BE}"/>
-    <hyperlink ref="B14" r:id="rId74" display="https://www.guru99.com/" xr:uid="{D5A8EBD3-D970-464C-981D-54EEFF23151E}"/>
-    <hyperlink ref="C14" r:id="rId75" display="https://hashnode.com/" xr:uid="{1025272B-B4BA-4D1E-A581-45B4AAB2CFC8}"/>
-    <hyperlink ref="D14" r:id="rId76" display="https://dailydevbytes.com/channel/blogs" xr:uid="{4B31A518-B32F-4358-84DF-83004002FAE0}"/>
-    <hyperlink ref="E14" r:id="rId77" display="https://www.indiehackers.com/" xr:uid="{90DF5C9A-C149-482B-BEA4-36D25A553432}"/>
-    <hyperlink ref="F14" r:id="rId78" display="https://app.daily.dev/" xr:uid="{53EA4024-B0C8-4EC4-9CCA-7825BADAD753}"/>
-    <hyperlink ref="G14" r:id="rId79" display="https://simpleprogrammer.com/" xr:uid="{42379C7F-8373-4802-A82C-770783206A0D}"/>
-    <hyperlink ref="H14" r:id="rId80" display="https://www.theodinproject.com/home" xr:uid="{E27B9287-9150-46FA-9F91-2C7C9C149D48}"/>
-    <hyperlink ref="A15" r:id="rId81" display="https://www.pramp.com/" xr:uid="{F1629C56-31E0-4F4B-895F-9DDDC64904A0}"/>
-    <hyperlink ref="B15" r:id="rId82" display="https://www.fullstack.cafe/" xr:uid="{73F59CBC-185E-4BDC-8C3B-FD6145AB643B}"/>
-    <hyperlink ref="C15" r:id="rId83" display="https://www.digitalocean.com/community" xr:uid="{89F33A1B-D934-4495-A2F6-9870A90E17C4}"/>
-    <hyperlink ref="D15" r:id="rId84" display="https://www.doctrine-project.org/" xr:uid="{FFA81CFF-4BFA-4736-B7D1-880CF857C7CD}"/>
-    <hyperlink ref="E15" r:id="rId85" display="https://www.geeksforgeeks.org/" xr:uid="{D0A509FC-5465-41FC-BAB9-8F0199EDFD2D}"/>
-    <hyperlink ref="J3" location="'3D Priniting'!A1" display="3D Printing" xr:uid="{7C61BBEB-E024-472E-BA9A-009DD42130FE}"/>
-    <hyperlink ref="J13" location="Graphics!A1" display="Graphics" xr:uid="{67C2FAD7-DC93-42E0-8064-56B5608F2B23}"/>
+    <hyperlink ref="I10" r:id="rId21" display="https://build-your-own-x.vercel.app/" xr:uid="{42FD690D-C616-49BD-BA77-2B0CB6A5BDE7}"/>
+    <hyperlink ref="B5" r:id="rId22" display="https://zeplin.io/" xr:uid="{8EA3DE31-4C86-4A13-8C37-6F3A382CDF16}"/>
+    <hyperlink ref="C5" r:id="rId23" display="https://material-ui.com/" xr:uid="{2A281D4A-D8E9-4C90-AB52-2111AE0DEB23}"/>
+    <hyperlink ref="D5" r:id="rId24" display="https://dribbble.com/" xr:uid="{E58D1D30-C957-4340-81F7-9F01F135640E}"/>
+    <hyperlink ref="E5" r:id="rId25" display="https://codemyui.com/" xr:uid="{5B4A2141-C621-4E6C-A301-217163645D68}"/>
+    <hyperlink ref="F5" r:id="rId26" display="https://www.creative-tim.com/templates/flutter" xr:uid="{2911586A-4800-4D34-AF2A-196754F8EF76}"/>
+    <hyperlink ref="G5" r:id="rId27" display="https://icomoon.io/" xr:uid="{3A8C4CC8-0C66-4E99-A235-37A1F05C0762}"/>
+    <hyperlink ref="H5" r:id="rId28" display="https://fontawesome.com/" xr:uid="{8001446B-0F93-4A57-8F51-39F76B014F68}"/>
+    <hyperlink ref="A6" r:id="rId29" display="https://www.figma.com/" xr:uid="{90F3821A-0629-4665-A7CC-B08CA9824852}"/>
+    <hyperlink ref="B6" r:id="rId30" display="https://sass-lang.com/" xr:uid="{6EE1D0F2-A5C9-4767-8B70-ABFA413F8BA8}"/>
+    <hyperlink ref="C6" r:id="rId31" display="https://www.frontendmentor.io/" xr:uid="{B60D4251-B1EB-4FEB-8953-663DCC50F9A7}"/>
+    <hyperlink ref="D6" r:id="rId32" display="https://themeforest.net/" xr:uid="{9D070C9B-A21C-4100-A927-0B5D92E135EC}"/>
+    <hyperlink ref="E6" r:id="rId33" display="https://tailwindcss.com/docs" xr:uid="{77277A14-B688-4C98-87D1-04E090A5A61C}"/>
+    <hyperlink ref="F6" r:id="rId34" display="https://mdbootstrap.com/" xr:uid="{F9DED750-2E37-4BC7-9A31-965C8F7A075F}"/>
+    <hyperlink ref="G6" r:id="rId35" display="https://getbootstrap.com/" xr:uid="{9BAB0D38-E547-47C3-9AA9-6A5648663712}"/>
+    <hyperlink ref="H6" r:id="rId36" display="https://proto.io/" xr:uid="{A6CF53DC-1868-4E98-8E4C-DA132BD085D5}"/>
+    <hyperlink ref="G7" r:id="rId37" display="https://bulma.io/" xr:uid="{85A74973-A001-42DD-B946-16F74AA5A2A6}"/>
+    <hyperlink ref="A7" r:id="rId38" display="https://search.google.com/test/mobile-friendly" xr:uid="{2B5991D7-98EE-4C5F-8205-F56BFC40E559}"/>
+    <hyperlink ref="B7" r:id="rId39" display="https://www.logomaker.com/" xr:uid="{7F46DEA1-1F48-4EE9-97A6-0BE55F8D409C}"/>
+    <hyperlink ref="C7" r:id="rId40" display="https://animate.style/" xr:uid="{7572769C-AA1A-490B-8620-AAC195AE1218}"/>
+    <hyperlink ref="D7" r:id="rId41" location="EveningNight" display="https://uigradients.com/ - EveningNight" xr:uid="{24A14883-F186-4435-9FE3-E4D532A88C33}"/>
+    <hyperlink ref="E7" r:id="rId42" display="https://www.sketch.com/" xr:uid="{B06AD9DD-AEB6-4741-8392-AF45AF4A6A64}"/>
+    <hyperlink ref="F7" r:id="rId43" display="https://greensock.com/" xr:uid="{0774AAC7-BA9C-4316-94F4-8100D8CFCA0A}"/>
+    <hyperlink ref="A9" r:id="rId44" display="https://stackoverflow.com/" xr:uid="{16EA2AF4-4439-429E-B542-7607F7BB7819}"/>
+    <hyperlink ref="B9" r:id="rId45" display="https://www.tutorialspoint.com/index.htm" xr:uid="{09D69CF6-0447-4C34-B494-2C4043285EB3}"/>
+    <hyperlink ref="C9" r:id="rId46" display="https://egghead.io/" xr:uid="{C8CC39C2-700D-484F-9CC9-206C50AA21B9}"/>
+    <hyperlink ref="D9" r:id="rId47" display="https://www.programiz.com/" xr:uid="{7752618E-3326-45FF-A366-08D7E0F63AD4}"/>
+    <hyperlink ref="E9" r:id="rId48" display="https://www.javatpoint.com/" xr:uid="{736D958C-352D-4298-B057-624F86F96B0C}"/>
+    <hyperlink ref="F9" r:id="rId49" display="https://goalkicker.com/" xr:uid="{8E4DDCA7-D2AF-4E5C-A85D-1B955FBB5290}"/>
+    <hyperlink ref="G9" r:id="rId50" display="https://exercism.org/tracks" xr:uid="{F0A10DD1-E665-43B9-87AE-9BBC70376E10}"/>
+    <hyperlink ref="H9" r:id="rId51" display="https://www.computerscience.org/careers" xr:uid="{441D6B98-3851-4BB2-8529-6528FDC5C18E}"/>
+    <hyperlink ref="A10" r:id="rId52" display="https://refactoring.guru/design-patterns/php" xr:uid="{C415F922-5A58-43C4-8573-57A7908F38A6}"/>
+    <hyperlink ref="B10" r:id="rId53" display="https://www.developerdrive.com/" xr:uid="{F8CD949A-3C75-4681-B472-61FF5CE03BAC}"/>
+    <hyperlink ref="C10" r:id="rId54" display="https://www.patterns.dev/" xr:uid="{65910F9E-1989-4C3F-A34E-08318B0CA088}"/>
+    <hyperlink ref="D10" r:id="rId55" display="https://hackr.io/" xr:uid="{9685C4B9-B049-4583-ACC0-C0F9FC57BECD}"/>
+    <hyperlink ref="E10" r:id="rId56" display="https://beginnersbook.com/" xr:uid="{4CD25EDD-6BE6-43D5-B13D-4D300C41151A}"/>
+    <hyperlink ref="F10" r:id="rId57" display="https://dzone.com/" xr:uid="{D832834C-E87C-42FD-A1EA-39F2C9CFC2FF}"/>
+    <hyperlink ref="G10" r:id="rId58" display="https://www.freecodecamp.org/" xr:uid="{BCAE37E8-512C-45CF-B432-5A1FEE0CC745}"/>
+    <hyperlink ref="H10" r:id="rId59" display="https://www.algoexpert.io/product" xr:uid="{66DDDBDB-7862-4058-98D4-B532BE637B6D}"/>
+    <hyperlink ref="A11" r:id="rId60" display="https://stackshare.io/" xr:uid="{C382B2DA-8A91-4100-9552-C06D6C86D2BE}"/>
+    <hyperlink ref="B11" r:id="rId61" display="https://www.guru99.com/" xr:uid="{D5A8EBD3-D970-464C-981D-54EEFF23151E}"/>
+    <hyperlink ref="C11" r:id="rId62" display="https://hashnode.com/" xr:uid="{1025272B-B4BA-4D1E-A581-45B4AAB2CFC8}"/>
+    <hyperlink ref="D11" r:id="rId63" display="https://dailydevbytes.com/channel/blogs" xr:uid="{4B31A518-B32F-4358-84DF-83004002FAE0}"/>
+    <hyperlink ref="E11" r:id="rId64" display="https://www.indiehackers.com/" xr:uid="{90DF5C9A-C149-482B-BEA4-36D25A553432}"/>
+    <hyperlink ref="F11" r:id="rId65" display="https://app.daily.dev/" xr:uid="{53EA4024-B0C8-4EC4-9CCA-7825BADAD753}"/>
+    <hyperlink ref="G11" r:id="rId66" display="https://simpleprogrammer.com/" xr:uid="{42379C7F-8373-4802-A82C-770783206A0D}"/>
+    <hyperlink ref="H11" r:id="rId67" display="https://www.theodinproject.com/home" xr:uid="{E27B9287-9150-46FA-9F91-2C7C9C149D48}"/>
+    <hyperlink ref="A12" r:id="rId68" display="https://www.pramp.com/" xr:uid="{F1629C56-31E0-4F4B-895F-9DDDC64904A0}"/>
+    <hyperlink ref="B12" r:id="rId69" display="https://www.fullstack.cafe/" xr:uid="{73F59CBC-185E-4BDC-8C3B-FD6145AB643B}"/>
+    <hyperlink ref="C12" r:id="rId70" display="https://www.digitalocean.com/community" xr:uid="{89F33A1B-D934-4495-A2F6-9870A90E17C4}"/>
+    <hyperlink ref="D12" r:id="rId71" display="https://www.doctrine-project.org/" xr:uid="{FFA81CFF-4BFA-4736-B7D1-880CF857C7CD}"/>
+    <hyperlink ref="E12" r:id="rId72" display="https://www.geeksforgeeks.org/" xr:uid="{D0A509FC-5465-41FC-BAB9-8F0199EDFD2D}"/>
+    <hyperlink ref="I9" location="'3D Priniting'!A1" display="3D Printing" xr:uid="{7C61BBEB-E024-472E-BA9A-009DD42130FE}"/>
+    <hyperlink ref="I11" location="Graphics!A1" display="Graphics" xr:uid="{67C2FAD7-DC93-42E0-8064-56B5608F2B23}"/>
+    <hyperlink ref="I2" location="'Problem Solving'!A1" display="'Problem Solving'!A1" xr:uid="{BBAA3EA4-E71D-44B4-ABB6-EB7A2503C124}"/>
+    <hyperlink ref="I1" location="Tips!A1" display="Tips" xr:uid="{940BB4A2-BBAE-40CF-ACD9-721619CA8388}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId86"/>
+  <pageSetup orientation="portrait" r:id="rId73"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A19292-1EE5-456C-BFD4-2A064F7E975B}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://www.youtube.com/@MohamadMustafa/videos" xr:uid="{CDBB8CD1-F064-4F14-89D3-77D79FF13E00}"/>
+    <hyperlink ref="G1" location="Dashboard!A1" display="Back" xr:uid="{EF1966A7-6FBA-4FD7-851B-7086BF97A2E7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECE076C-BE8B-4E45-A6A9-3829C5090764}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="20"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://www.beecrowd.com.br/judge/en" xr:uid="{0EEDE18D-2698-4E47-BD0D-B25EC1D74163}"/>
+    <hyperlink ref="B1" r:id="rId2" display="https://www.topcoder.com/" xr:uid="{99D28B14-BAE6-4D52-9110-003BBD91B8E2}"/>
+    <hyperlink ref="C1" r:id="rId3" display="http://codeforces.com/" xr:uid="{FC3032FE-C684-4E70-B2EC-6FBCFEEDE393}"/>
+    <hyperlink ref="D1" r:id="rId4" display="https://cses.fi/problemset" xr:uid="{509A38B5-A17C-433A-8AC1-7792940D057E}"/>
+    <hyperlink ref="E1" r:id="rId5" display="https://www.codechef.com/" xr:uid="{1775B098-414A-43C3-838D-78141B33AAC9}"/>
+    <hyperlink ref="F1" r:id="rId6" display="https://leetcode.com/" xr:uid="{E0D07D3E-39C6-4A4D-94FA-6ACB936C1AFD}"/>
+    <hyperlink ref="G1" r:id="rId7" display="https://vjudge.net/" xr:uid="{EBC603BE-A70E-43F5-8EEA-B191084AC9CB}"/>
+    <hyperlink ref="A2" r:id="rId8" display="https://www.hackerrank.com/" xr:uid="{226E0E1B-6696-44E9-A1E9-35AA53DBC2C4}"/>
+    <hyperlink ref="B2" r:id="rId9" display="https://www.codewars.com/dashboard" xr:uid="{EAD0543E-BCB9-4175-8530-05B4E2CE966D}"/>
+    <hyperlink ref="C2" r:id="rId10" display="https://codepen.io/" xr:uid="{2DAB091D-A9A1-444C-B2E9-114A50D34973}"/>
+    <hyperlink ref="D2" r:id="rId11" display="https://coderbyte.com/" xr:uid="{533F8354-B98C-4ACB-B9B2-69E26C71D4D1}"/>
+    <hyperlink ref="E2" r:id="rId12" display="https://icpc.global/" xr:uid="{5D042A5F-D90E-441E-9735-04987766B64A}"/>
+    <hyperlink ref="F2" r:id="rId13" display="https://www.kaggle.com/" xr:uid="{860FD63F-42BF-46F0-9E7C-386F95ED55BE}"/>
+    <hyperlink ref="I1" location="Dashboard!A1" display="Back" xr:uid="{44654172-CEFC-4F43-8377-DB8D2456B3A6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0870F34A-33AD-43D9-9529-E493C8468E83}">
   <dimension ref="A1:H18"/>
   <sheetViews>
@@ -1989,22 +2069,22 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="34"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2123,7 +2203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBDEB62-6BA5-4C28-B051-2DE4BB52AF06}">
   <dimension ref="A1:I23"/>
   <sheetViews>
@@ -2134,7 +2214,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>125</v>
       </c>
       <c r="H1" s="6"/>
@@ -2143,13 +2223,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
@@ -2169,7 +2249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408A403A-76AA-44D6-B5E6-C307F1214717}">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -2179,139 +2259,139 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" style="15" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="17.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="27"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="28" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+    </row>
+    <row r="12" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+    </row>
+    <row r="13" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2321,7 +2401,7 @@
     <hyperlink ref="C1" r:id="rId3" xr:uid="{8139704A-7B46-49EA-97CF-1130B59301A0}"/>
     <hyperlink ref="D1" r:id="rId4" xr:uid="{2AC00275-60C6-4A74-B5E4-5C0F717B5923}"/>
     <hyperlink ref="A3" r:id="rId5" xr:uid="{30E1A108-2237-45FB-B557-6F3E0A7AB13B}"/>
-    <hyperlink ref="B3" r:id="rId6" xr:uid="{742100F8-AF9F-40E1-B628-B8A13266D30D}"/>
+    <hyperlink ref="B3" r:id="rId6" display="ASP NET" xr:uid="{742100F8-AF9F-40E1-B628-B8A13266D30D}"/>
     <hyperlink ref="E3" r:id="rId7" xr:uid="{F1752469-4520-4A9A-8DD1-70BAF9877383}"/>
     <hyperlink ref="A7" r:id="rId8" display="Facebook | Power Platform" xr:uid="{F96E8DDE-29EB-43E4-BFF3-38B688D2E4D0}"/>
     <hyperlink ref="A9" r:id="rId9" display="Youtube |  Microsoft Power Apps" xr:uid="{7ABF023A-04D9-4DE2-9917-9AF179B9B875}"/>
@@ -2334,7 +2414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD1A4D8-C98B-42C3-92B7-1FF5A02E82A7}">
   <dimension ref="A1:L32"/>
   <sheetViews>
@@ -2353,7 +2433,7 @@
     <col min="8" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>19</v>
       </c>
@@ -2362,10 +2442,10 @@
         <v>30</v>
       </c>
       <c r="F1" s="12"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="45" t="s">
         <v>11</v>
       </c>
+      <c r="L1" s="46"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -2564,16 +2644,19 @@
       <c r="C32" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" display="ultimaker" xr:uid="{9584E488-3473-4EC7-AA7B-83AA9350B185}"/>
     <hyperlink ref="G9" r:id="rId2" xr:uid="{8680BE75-083D-4B60-BB91-97802AF788D7}"/>
-    <hyperlink ref="L1" location="Dashboard!A1" display="Back" xr:uid="{71E9C935-672F-4483-804E-5A585964EC7F}"/>
+    <hyperlink ref="K1" location="Dashboard!A1" display="Back" xr:uid="{71E9C935-672F-4483-804E-5A585964EC7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548411AB-5CA4-4A69-A10D-C22AE534FF90}">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -2654,825 +2737,528 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944D90D9-B79E-4B38-906B-E7C0FA3A721E}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.85546875" style="22" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="65.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+    </row>
+    <row r="2" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+    </row>
+    <row r="3" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+    </row>
+    <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+    </row>
+    <row r="5" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{41B87B05-920C-4A8F-B338-4F289D0F3967}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{C46F0DFB-1FE5-4AF2-A145-119F42B20B26}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{C0AED85A-028F-4030-8CC7-0C8F8AA431BF}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{A8620F22-D3CD-482D-AD52-38EAEE207191}"/>
-    <hyperlink ref="A9" r:id="rId5" location="programming" xr:uid="{486689D9-7D68-4451-B397-355BD51B966B}"/>
-    <hyperlink ref="C1" r:id="rId6" xr:uid="{013F39A5-7DFB-4FB2-89DA-863CFB5E9546}"/>
-    <hyperlink ref="B1" r:id="rId7" display="Make Keywords Alert With Google" xr:uid="{291409F9-B366-4A9D-AFAB-16020AEA45EC}"/>
-    <hyperlink ref="A11" r:id="rId8" xr:uid="{D1FF7D4C-C3B8-481D-AF0B-41551AAD5A59}"/>
-    <hyperlink ref="A8" r:id="rId9" display="Preparing for the Systems" xr:uid="{AABDDB4C-0B25-45E1-B1D9-E99B1DEACFC8}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE504DF1-2046-4C24-8338-36D31BC82292}">
-  <dimension ref="A1:J28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="61" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="15"/>
-    <col min="6" max="6" width="42.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2"/>
-      <c r="J2"/>
-    </row>
-    <row r="3" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{A7895E19-99F7-4926-81FB-9C34E28F2EF6}"/>
-    <hyperlink ref="J1" location="Dashboard!A1" display="Back" xr:uid="{A41A39F2-4A49-4486-8ED7-3AF9A95D0FE4}"/>
+    <hyperlink ref="A21" r:id="rId1" xr:uid="{41B87B05-920C-4A8F-B338-4F289D0F3967}"/>
+    <hyperlink ref="A1" r:id="rId2" xr:uid="{C46F0DFB-1FE5-4AF2-A145-119F42B20B26}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{C0AED85A-028F-4030-8CC7-0C8F8AA431BF}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{A8620F22-D3CD-482D-AD52-38EAEE207191}"/>
+    <hyperlink ref="A5" r:id="rId5" location="programming" xr:uid="{486689D9-7D68-4451-B397-355BD51B966B}"/>
+    <hyperlink ref="C2" r:id="rId6" xr:uid="{013F39A5-7DFB-4FB2-89DA-863CFB5E9546}"/>
+    <hyperlink ref="C1" r:id="rId7" display="Make Keywords Alert With Google" xr:uid="{291409F9-B366-4A9D-AFAB-16020AEA45EC}"/>
+    <hyperlink ref="C3" r:id="rId8" xr:uid="{D1FF7D4C-C3B8-481D-AF0B-41551AAD5A59}"/>
+    <hyperlink ref="A4" r:id="rId9" display="Preparing for the Systems" xr:uid="{AABDDB4C-0B25-45E1-B1D9-E99B1DEACFC8}"/>
+    <hyperlink ref="D1" location="Dashboard!A1" display="Back" xr:uid="{F9984E97-2FF1-49E3-8C27-D9F73D755B13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A19292-1EE5-456C-BFD4-2A064F7E975B}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE504DF1-2046-4C24-8338-36D31BC82292}">
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="61" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="G1" s="5" t="s">
+    <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="47" t="s">
         <v>11</v>
       </c>
+      <c r="F1" s="48"/>
+    </row>
+    <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://www.youtube.com/@MohamadMustafa/videos" xr:uid="{CDBB8CD1-F064-4F14-89D3-77D79FF13E00}"/>
-    <hyperlink ref="G1" location="Dashboard!A1" display="Back" xr:uid="{EF1966A7-6FBA-4FD7-851B-7086BF97A2E7}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{A7895E19-99F7-4926-81FB-9C34E28F2EF6}"/>
+    <hyperlink ref="E1" location="Dashboard!A1" display="Back" xr:uid="{A41A39F2-4A49-4486-8ED7-3AF9A95D0FE4}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{D261BA18-A156-4876-8B7C-3AFCB7ABBDF6}"/>
+    <hyperlink ref="A10" r:id="rId3" xr:uid="{F00FCEBD-DDAD-4854-B58C-7E1237732466}"/>
+    <hyperlink ref="A11" r:id="rId4" xr:uid="{0F19B1F4-8667-42A3-9922-04EF3F752CE1}"/>
+    <hyperlink ref="A8" r:id="rId5" xr:uid="{032EB069-73C5-4728-AF5A-B31854A72B57}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/HTML/P1 Excel.xlsx
+++ b/HTML/P1 Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07D7E896-E3E8-47CF-B3E0-F7DBE9CD8DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AC9485-53E6-48E0-910A-90C7A3878BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,11 +18,12 @@
     <sheet name="PHP" sheetId="2" r:id="rId3"/>
     <sheet name="JS" sheetId="3" r:id="rId4"/>
     <sheet name="Microsoft" sheetId="4" r:id="rId5"/>
-    <sheet name="3D Priniting" sheetId="5" r:id="rId6"/>
-    <sheet name="Py" sheetId="6" r:id="rId7"/>
-    <sheet name="Tips" sheetId="9" r:id="rId8"/>
-    <sheet name="Software" sheetId="7" r:id="rId9"/>
-    <sheet name="Graphics" sheetId="10" r:id="rId10"/>
+    <sheet name="CSS" sheetId="12" r:id="rId6"/>
+    <sheet name="3D Priniting" sheetId="5" r:id="rId7"/>
+    <sheet name="Py" sheetId="6" r:id="rId8"/>
+    <sheet name="Tips" sheetId="9" r:id="rId9"/>
+    <sheet name="Software" sheetId="7" r:id="rId10"/>
+    <sheet name="Graphics" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="233">
   <si>
     <t>PHP Ref</t>
   </si>
@@ -646,12 +647,6 @@
     <t>Microsoft Learn</t>
   </si>
   <si>
-    <t>https://devoworx.net</t>
-  </si>
-  <si>
-    <t>https://debug.to</t>
-  </si>
-  <si>
     <t>Youtube| Fouad Zawadi</t>
   </si>
   <si>
@@ -678,13 +673,76 @@
   </si>
   <si>
     <t>ASP.NET</t>
+  </si>
+  <si>
+    <t>Power Automate</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://devoworx.net </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://debug.to </t>
+  </si>
+  <si>
+    <t>Dotnet Egypt</t>
+  </si>
+  <si>
+    <t>.Net Developers Egypt</t>
+  </si>
+  <si>
+    <t>Does bootstrap have builtin padding and margin classes?</t>
+  </si>
+  <si>
+    <t>mozilla css</t>
+  </si>
+  <si>
+    <t>cssreference.io</t>
+  </si>
+  <si>
+    <t>tympanus CSS</t>
+  </si>
+  <si>
+    <t>web.dev</t>
+  </si>
+  <si>
+    <t>codepip</t>
+  </si>
+  <si>
+    <t>flexbox froggy</t>
+  </si>
+  <si>
+    <t>w3schools CSS</t>
+  </si>
+  <si>
+    <t>css-tricks</t>
+  </si>
+  <si>
+    <t>gridcritters</t>
+  </si>
+  <si>
+    <t>css-challenges</t>
+  </si>
+  <si>
+    <t>cssbattle.dev</t>
+  </si>
+  <si>
+    <t>codepen.io</t>
+  </si>
+  <si>
+    <t>guess-css</t>
+  </si>
+  <si>
+    <t>CSS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -817,6 +875,22 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -959,7 +1033,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1076,6 +1150,15 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1103,8 +1186,17 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1462,7 +1554,7 @@
         <v>122</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J2" s="35"/>
     </row>
@@ -1496,13 +1588,13 @@
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="37" t="s">
-        <v>13</v>
+        <v>232</v>
       </c>
       <c r="J4" s="35"/>
     </row>
     <row r="5" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B5" s="31" t="s">
         <v>143</v>
@@ -1526,7 +1618,7 @@
         <v>149</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" s="35"/>
     </row>
@@ -1556,7 +1648,7 @@
         <v>157</v>
       </c>
       <c r="I6" s="37" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="J6" s="35"/>
     </row>
@@ -1584,7 +1676,7 @@
       </c>
       <c r="H7" s="31"/>
       <c r="I7" s="37" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="J7" s="35"/>
     </row>
@@ -1597,8 +1689,8 @@
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
       <c r="H8" s="31"/>
-      <c r="I8" s="34" t="s">
-        <v>60</v>
+      <c r="I8" s="37" t="s">
+        <v>47</v>
       </c>
       <c r="J8" s="35"/>
     </row>
@@ -1628,7 +1720,7 @@
         <v>172</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="J9" s="35"/>
     </row>
@@ -1658,7 +1750,7 @@
         <v>180</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="J10" s="35"/>
     </row>
@@ -1688,7 +1780,7 @@
         <v>188</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="J11" s="35"/>
     </row>
@@ -1711,7 +1803,9 @@
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
+      <c r="I12" s="34" t="s">
+        <v>195</v>
+      </c>
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1737,11 +1831,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I5" location="PHP!A1" display="PHP" xr:uid="{44AF98E1-2BA9-40A1-BD82-41C9458E11F5}"/>
-    <hyperlink ref="I4" location="JS!A1" display="JS" xr:uid="{B324B7D1-0977-4A7C-BDA4-D5C04D851575}"/>
+    <hyperlink ref="I6" location="PHP!A1" display="PHP" xr:uid="{44AF98E1-2BA9-40A1-BD82-41C9458E11F5}"/>
+    <hyperlink ref="I5" location="JS!A1" display="JS" xr:uid="{B324B7D1-0977-4A7C-BDA4-D5C04D851575}"/>
     <hyperlink ref="I3" location="Microsoft!A1" display="Microsoft" xr:uid="{F1435990-D8AF-48BF-9974-4087602915F6}"/>
-    <hyperlink ref="I7" location="Py!A1" display="Python" xr:uid="{7A9A1D61-9968-4703-AC9A-7723553AE43A}"/>
-    <hyperlink ref="I8" location="Software!A1" display="Other Software" xr:uid="{6D48D2BD-A81D-41A6-A29F-7F33245D14B0}"/>
+    <hyperlink ref="I8" location="Py!A1" display="Python" xr:uid="{7A9A1D61-9968-4703-AC9A-7723553AE43A}"/>
+    <hyperlink ref="I9" location="Software!A1" display="Other Software" xr:uid="{6D48D2BD-A81D-41A6-A29F-7F33245D14B0}"/>
     <hyperlink ref="A1" r:id="rId1" display="https://www.jenkins.io/" xr:uid="{3E7B1E85-45A6-4B7F-8C70-DADE2615BCF5}"/>
     <hyperlink ref="B1" r:id="rId2" display="https://hub.docker.com/" xr:uid="{F91CC9AF-9D27-4120-ABDF-3DAA5D3A0540}"/>
     <hyperlink ref="C1" r:id="rId3" display="https://www.elastic.co/" xr:uid="{4BF3C7CD-37E8-4990-B50F-B0AA27995967}"/>
@@ -1759,10 +1853,10 @@
     <hyperlink ref="H2" r:id="rId15" display="https://dgraph.io/" xr:uid="{093C7231-5B52-479D-BC18-FC137E1C52DC}"/>
     <hyperlink ref="A3" r:id="rId16" display="https://www.graphql.com/" xr:uid="{C5BAE5E2-9F77-407D-8F6D-1A7440D4BEBA}"/>
     <hyperlink ref="B3" r:id="rId17" display="https://aws.amazon.com/" xr:uid="{7DAE6AD9-E9F6-4FA5-A1F4-218BFFB0DF55}"/>
-    <hyperlink ref="I6" r:id="rId18" display="https://en.cppreference.com/" xr:uid="{3C0FEF83-6094-4FBF-A0D5-BE9315C53148}"/>
+    <hyperlink ref="I7" r:id="rId18" display="https://en.cppreference.com/" xr:uid="{3C0FEF83-6094-4FBF-A0D5-BE9315C53148}"/>
     <hyperlink ref="E2" r:id="rId19" display="https://www.rust-lang.org/" xr:uid="{31F1428D-91BE-4E1E-8498-4229EFCDF440}"/>
     <hyperlink ref="C3" r:id="rId20" display="https://pusher.com/" xr:uid="{7C3CDB02-6919-4E87-A0F9-55BD4F0A908D}"/>
-    <hyperlink ref="I10" r:id="rId21" display="https://build-your-own-x.vercel.app/" xr:uid="{42FD690D-C616-49BD-BA77-2B0CB6A5BDE7}"/>
+    <hyperlink ref="I11" r:id="rId21" display="https://build-your-own-x.vercel.app/" xr:uid="{42FD690D-C616-49BD-BA77-2B0CB6A5BDE7}"/>
     <hyperlink ref="B5" r:id="rId22" display="https://zeplin.io/" xr:uid="{8EA3DE31-4C86-4A13-8C37-6F3A382CDF16}"/>
     <hyperlink ref="C5" r:id="rId23" display="https://material-ui.com/" xr:uid="{2A281D4A-D8E9-4C90-AB52-2111AE0DEB23}"/>
     <hyperlink ref="D5" r:id="rId24" display="https://dribbble.com/" xr:uid="{E58D1D30-C957-4340-81F7-9F01F135640E}"/>
@@ -1814,10 +1908,11 @@
     <hyperlink ref="C12" r:id="rId70" display="https://www.digitalocean.com/community" xr:uid="{89F33A1B-D934-4495-A2F6-9870A90E17C4}"/>
     <hyperlink ref="D12" r:id="rId71" display="https://www.doctrine-project.org/" xr:uid="{FFA81CFF-4BFA-4736-B7D1-880CF857C7CD}"/>
     <hyperlink ref="E12" r:id="rId72" display="https://www.geeksforgeeks.org/" xr:uid="{D0A509FC-5465-41FC-BAB9-8F0199EDFD2D}"/>
-    <hyperlink ref="I9" location="'3D Priniting'!A1" display="3D Printing" xr:uid="{7C61BBEB-E024-472E-BA9A-009DD42130FE}"/>
-    <hyperlink ref="I11" location="Graphics!A1" display="Graphics" xr:uid="{67C2FAD7-DC93-42E0-8064-56B5608F2B23}"/>
+    <hyperlink ref="I10" location="'3D Priniting'!A1" display="3D Printing" xr:uid="{7C61BBEB-E024-472E-BA9A-009DD42130FE}"/>
+    <hyperlink ref="I12" location="Graphics!A1" display="Graphics" xr:uid="{67C2FAD7-DC93-42E0-8064-56B5608F2B23}"/>
     <hyperlink ref="I2" location="'Problem Solving'!A1" display="'Problem Solving'!A1" xr:uid="{BBAA3EA4-E71D-44B4-ABB6-EB7A2503C124}"/>
     <hyperlink ref="I1" location="Tips!A1" display="Tips" xr:uid="{940BB4A2-BBAE-40CF-ACD9-721619CA8388}"/>
+    <hyperlink ref="I4" location="CSS!A1" display="CSS" xr:uid="{68DF51BF-3398-4BFF-8D1B-14F06DFB6163}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId73"/>
@@ -1825,6 +1920,281 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE504DF1-2046-4C24-8338-36D31BC82292}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="51"/>
+    </row>
+    <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{A7895E19-99F7-4926-81FB-9C34E28F2EF6}"/>
+    <hyperlink ref="E1" location="Dashboard!A1" display="Back" xr:uid="{A41A39F2-4A49-4486-8ED7-3AF9A95D0FE4}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{D261BA18-A156-4876-8B7C-3AFCB7ABBDF6}"/>
+    <hyperlink ref="A10" r:id="rId3" xr:uid="{F00FCEBD-DDAD-4854-B58C-7E1237732466}"/>
+    <hyperlink ref="A11" r:id="rId4" xr:uid="{0F19B1F4-8667-42A3-9922-04EF3F752CE1}"/>
+    <hyperlink ref="A8" r:id="rId5" xr:uid="{032EB069-73C5-4728-AF5A-B31854A72B57}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A19292-1EE5-456C-BFD4-2A064F7E975B}">
   <dimension ref="A1:G1"/>
   <sheetViews>
@@ -2069,22 +2439,22 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="44"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2223,13 +2593,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="45"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
@@ -2251,7 +2621,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408A403A-76AA-44D6-B5E6-C307F1214717}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -2261,7 +2631,9 @@
   <cols>
     <col min="1" max="1" width="34.140625" style="15" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="17.140625" style="15"/>
+    <col min="3" max="3" width="24.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="17.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2272,39 +2644,43 @@
         <v>198</v>
       </c>
       <c r="C1" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="E1" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="23"/>
-    </row>
-    <row r="2" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>211</v>
+      </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="25"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="25"/>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="40" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>215</v>
+      </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
@@ -2317,104 +2693,291 @@
       <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="A6" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>216</v>
+      </c>
       <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>205</v>
+      </c>
       <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>209</v>
-      </c>
+      <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>203</v>
-      </c>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="E9" s="24" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-    </row>
-    <row r="11" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-    </row>
-    <row r="12" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-    </row>
-    <row r="13" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-    </row>
-    <row r="14" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="B10"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E1" location="Dashboard!A1" display="Back" xr:uid="{2ED13176-37D8-4E25-A9EA-557973EEAFC2}"/>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{26606878-05CE-4034-AEA3-D12B5D9B6BCA}"/>
     <hyperlink ref="B1" r:id="rId2" xr:uid="{738F047D-58CC-41B9-8C9C-F5075ED3307E}"/>
-    <hyperlink ref="C1" r:id="rId3" xr:uid="{8139704A-7B46-49EA-97CF-1130B59301A0}"/>
-    <hyperlink ref="D1" r:id="rId4" xr:uid="{2AC00275-60C6-4A74-B5E4-5C0F717B5923}"/>
-    <hyperlink ref="A3" r:id="rId5" xr:uid="{30E1A108-2237-45FB-B557-6F3E0A7AB13B}"/>
-    <hyperlink ref="B3" r:id="rId6" display="ASP NET" xr:uid="{742100F8-AF9F-40E1-B628-B8A13266D30D}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{8139704A-7B46-49EA-97CF-1130B59301A0}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{2AC00275-60C6-4A74-B5E4-5C0F717B5923}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{30E1A108-2237-45FB-B557-6F3E0A7AB13B}"/>
+    <hyperlink ref="C2" r:id="rId6" display="ASP NET" xr:uid="{742100F8-AF9F-40E1-B628-B8A13266D30D}"/>
     <hyperlink ref="E3" r:id="rId7" xr:uid="{F1752469-4520-4A9A-8DD1-70BAF9877383}"/>
-    <hyperlink ref="A7" r:id="rId8" display="Facebook | Power Platform" xr:uid="{F96E8DDE-29EB-43E4-BFF3-38B688D2E4D0}"/>
-    <hyperlink ref="A9" r:id="rId9" display="Youtube |  Microsoft Power Apps" xr:uid="{7ABF023A-04D9-4DE2-9917-9AF179B9B875}"/>
-    <hyperlink ref="A10" r:id="rId10" display="Youtube | Fouad Zawadi" xr:uid="{7A321587-6356-4BAF-935E-A8E5D9157507}"/>
-    <hyperlink ref="A11" r:id="rId11" display="Shaban D365" xr:uid="{A063E583-4868-4490-9C32-15A6AE1A104F}"/>
-    <hyperlink ref="A8" r:id="rId12" display="Microsoft Power Platform" xr:uid="{A8FEFDCD-288F-4173-9CF5-5EA8D81087C0}"/>
+    <hyperlink ref="B6" r:id="rId8" display="Facebook | Power Platform" xr:uid="{F96E8DDE-29EB-43E4-BFF3-38B688D2E4D0}"/>
+    <hyperlink ref="B7" r:id="rId9" display="Youtube |  Microsoft Power Apps" xr:uid="{7ABF023A-04D9-4DE2-9917-9AF179B9B875}"/>
+    <hyperlink ref="C7" r:id="rId10" display="Youtube | Fouad Zawadi" xr:uid="{7A321587-6356-4BAF-935E-A8E5D9157507}"/>
+    <hyperlink ref="D7" r:id="rId11" display="Shaban D365" xr:uid="{A063E583-4868-4490-9C32-15A6AE1A104F}"/>
+    <hyperlink ref="A7" r:id="rId12" display="Microsoft Power Platform" xr:uid="{A8FEFDCD-288F-4173-9CF5-5EA8D81087C0}"/>
+    <hyperlink ref="C1" r:id="rId13" xr:uid="{DE22849F-A793-49D9-95CD-F889C14D3606}"/>
+    <hyperlink ref="A4" r:id="rId14" xr:uid="{3F5F2594-99F8-4181-805F-853242DC599D}"/>
+    <hyperlink ref="B4" r:id="rId15" xr:uid="{2EFDC058-F929-4638-8C4B-2CD6ACB67EAF}"/>
+    <hyperlink ref="C6" r:id="rId16" xr:uid="{85A265A7-61CB-4BA6-B33D-485504CA7C69}"/>
+    <hyperlink ref="D6" r:id="rId17" xr:uid="{4970F63A-6650-4E89-8C7A-6E3C206522FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544C6A15-C96E-48E1-98C3-0CE12224659F}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="28.28515625" defaultRowHeight="64.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="28.28515625" style="53"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+    </row>
+    <row r="2" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+    </row>
+    <row r="3" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+    </row>
+    <row r="4" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+    </row>
+    <row r="5" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+    </row>
+    <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+    </row>
+    <row r="7" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+    </row>
+    <row r="8" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+    </row>
+    <row r="9" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+    </row>
+    <row r="10" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+    </row>
+    <row r="11" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+    </row>
+    <row r="12" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:D8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{B3848B6B-EF81-4123-9D54-3F216A9403C4}"/>
+    <hyperlink ref="A1" r:id="rId2" xr:uid="{04FF4B12-5F4C-4C47-89BB-24A1E5A3D2C2}"/>
+    <hyperlink ref="C1" r:id="rId3" xr:uid="{973FE87C-1687-47C2-BBFE-76106B70CE04}"/>
+    <hyperlink ref="D1" r:id="rId4" xr:uid="{5C6F3937-E48C-4A21-85F6-08E8CBC9B580}"/>
+    <hyperlink ref="E1" r:id="rId5" xr:uid="{F0C7148A-AA1A-4B8C-8320-1C324F0F8FBA}"/>
+    <hyperlink ref="A2" r:id="rId6" xr:uid="{75AAAD14-2C79-4A37-8452-DB02C8AEED3D}"/>
+    <hyperlink ref="B2" r:id="rId7" xr:uid="{08560A5A-09EB-4C21-95EC-D034AA0D8994}"/>
+    <hyperlink ref="C2" r:id="rId8" xr:uid="{048A5D56-4743-4517-A315-E9347D14BBDC}"/>
+    <hyperlink ref="D2" r:id="rId9" xr:uid="{1A36D469-174D-43BD-8BBF-2B910EFF0A5B}"/>
+    <hyperlink ref="A4" r:id="rId10" xr:uid="{1F27A86A-4F6B-42DF-A7B1-3747D63702DA}"/>
+    <hyperlink ref="B4" r:id="rId11" xr:uid="{836F1F53-5186-4189-99EC-723DBA51655D}"/>
+    <hyperlink ref="C4" r:id="rId12" xr:uid="{F3FD3167-8618-4E2D-8092-39F66DC3B051}"/>
+    <hyperlink ref="D4" r:id="rId13" xr:uid="{7E44949E-94C5-4F56-A796-AB39F7CF7742}"/>
+    <hyperlink ref="A8:D8" r:id="rId14" display="Does bootstrap have builtin padding and margin classes?" xr:uid="{687F7D5A-5D50-4B59-83EA-D654F9326B93}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD1A4D8-C98B-42C3-92B7-1FF5A02E82A7}">
   <dimension ref="A1:L32"/>
   <sheetViews>
@@ -2442,10 +3005,10 @@
         <v>30</v>
       </c>
       <c r="F1" s="12"/>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="46"/>
+      <c r="L1" s="49"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -2656,7 +3219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548411AB-5CA4-4A69-A10D-C22AE534FF90}">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -2737,7 +3300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944D90D9-B79E-4B38-906B-E7C0FA3A721E}">
   <dimension ref="A1:P21"/>
   <sheetViews>
@@ -2986,279 +3549,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE504DF1-2046-4C24-8338-36D31BC82292}">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="61" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="48"/>
-    </row>
-    <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E1:F1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{A7895E19-99F7-4926-81FB-9C34E28F2EF6}"/>
-    <hyperlink ref="E1" location="Dashboard!A1" display="Back" xr:uid="{A41A39F2-4A49-4486-8ED7-3AF9A95D0FE4}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{D261BA18-A156-4876-8B7C-3AFCB7ABBDF6}"/>
-    <hyperlink ref="A10" r:id="rId3" xr:uid="{F00FCEBD-DDAD-4854-B58C-7E1237732466}"/>
-    <hyperlink ref="A11" r:id="rId4" xr:uid="{0F19B1F4-8667-42A3-9922-04EF3F752CE1}"/>
-    <hyperlink ref="A8" r:id="rId5" xr:uid="{032EB069-73C5-4728-AF5A-B31854A72B57}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/HTML/P1 Excel.xlsx
+++ b/HTML/P1 Excel.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AC9485-53E6-48E0-910A-90C7A3878BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C8C3432-8FDC-4DF6-B248-3FCA46470AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
-    <sheet name="Problem Solving" sheetId="11" r:id="rId2"/>
-    <sheet name="PHP" sheetId="2" r:id="rId3"/>
-    <sheet name="JS" sheetId="3" r:id="rId4"/>
-    <sheet name="Microsoft" sheetId="4" r:id="rId5"/>
-    <sheet name="CSS" sheetId="12" r:id="rId6"/>
-    <sheet name="3D Priniting" sheetId="5" r:id="rId7"/>
-    <sheet name="Py" sheetId="6" r:id="rId8"/>
-    <sheet name="Tips" sheetId="9" r:id="rId9"/>
-    <sheet name="Software" sheetId="7" r:id="rId10"/>
-    <sheet name="Graphics" sheetId="10" r:id="rId11"/>
+    <sheet name="UI-UX" sheetId="13" r:id="rId2"/>
+    <sheet name="Problem Solving" sheetId="11" r:id="rId3"/>
+    <sheet name="PHP" sheetId="2" r:id="rId4"/>
+    <sheet name="JS" sheetId="3" r:id="rId5"/>
+    <sheet name="Microsoft" sheetId="4" r:id="rId6"/>
+    <sheet name="CSS" sheetId="12" r:id="rId7"/>
+    <sheet name="3D Priniting" sheetId="5" r:id="rId8"/>
+    <sheet name="Py" sheetId="6" r:id="rId9"/>
+    <sheet name="Tips" sheetId="9" r:id="rId10"/>
+    <sheet name="Software" sheetId="7" r:id="rId11"/>
+    <sheet name="Graphics" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -616,9 +617,6 @@
     <t>Doctrine</t>
   </si>
   <si>
-    <t>geeks4geeks</t>
-  </si>
-  <si>
     <t>3D Printing</t>
   </si>
   <si>
@@ -662,10 +660,6 @@
     <t>Youtube| Power Platform</t>
   </si>
   <si>
-    <t>Problem Solving 
-&amp; Challenges</t>
-  </si>
-  <si>
     <t>UI - UX</t>
   </si>
   <si>
@@ -736,13 +730,19 @@
   </si>
   <si>
     <t>CSS</t>
+  </si>
+  <si>
+    <t>Problem Solving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geeks 4 Geeks </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -867,14 +867,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -897,7 +889,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -936,19 +928,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,7 +1019,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1123,80 +1109,75 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1482,360 +1463,276 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.140625" defaultRowHeight="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="33" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="33" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="33" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="33" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" style="33" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="33" customWidth="1"/>
-    <col min="10" max="16384" width="16.140625" style="33"/>
+    <col min="1" max="8" width="25.140625" style="39"/>
+    <col min="9" max="9" width="21.7109375" style="39" customWidth="1"/>
+    <col min="10" max="16384" width="25.140625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="52" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="52" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="40"/>
+    </row>
+    <row r="5" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="J5" s="40"/>
+    </row>
+    <row r="6" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="40"/>
+    </row>
+    <row r="7" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" s="40"/>
+    </row>
+    <row r="8" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="40"/>
+    </row>
+    <row r="9" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="J9" s="40"/>
+    </row>
+    <row r="10" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="J10" s="40"/>
+    </row>
+    <row r="11" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" s="40"/>
+    </row>
+    <row r="12" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="52" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="J2" s="35"/>
-    </row>
-    <row r="3" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="35"/>
-    </row>
-    <row r="4" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="J4" s="35"/>
-    </row>
-    <row r="5" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="35"/>
-    </row>
-    <row r="6" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="35"/>
-    </row>
-    <row r="7" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="J7" s="35"/>
-    </row>
-    <row r="8" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="35"/>
-    </row>
-    <row r="9" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="35"/>
-    </row>
-    <row r="10" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="J10" s="35"/>
-    </row>
-    <row r="11" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="J11" s="35"/>
-    </row>
-    <row r="12" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="J12" s="35"/>
-    </row>
-    <row r="13" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="35"/>
+      <c r="J13" s="40"/>
     </row>
     <row r="14" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J14" s="35"/>
+      <c r="J14" s="40"/>
     </row>
     <row r="15" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J15" s="35"/>
+      <c r="J15" s="40"/>
     </row>
     <row r="16" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J16" s="35"/>
+      <c r="J16" s="40"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:H4"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="I6" location="PHP!A1" display="PHP" xr:uid="{44AF98E1-2BA9-40A1-BD82-41C9458E11F5}"/>
-    <hyperlink ref="I5" location="JS!A1" display="JS" xr:uid="{B324B7D1-0977-4A7C-BDA4-D5C04D851575}"/>
-    <hyperlink ref="I3" location="Microsoft!A1" display="Microsoft" xr:uid="{F1435990-D8AF-48BF-9974-4087602915F6}"/>
+    <hyperlink ref="I4" location="JS!A1" display="JS" xr:uid="{B324B7D1-0977-4A7C-BDA4-D5C04D851575}"/>
+    <hyperlink ref="I2" location="Microsoft!A1" display="Microsoft" xr:uid="{F1435990-D8AF-48BF-9974-4087602915F6}"/>
     <hyperlink ref="I8" location="Py!A1" display="Python" xr:uid="{7A9A1D61-9968-4703-AC9A-7723553AE43A}"/>
-    <hyperlink ref="I9" location="Software!A1" display="Other Software" xr:uid="{6D48D2BD-A81D-41A6-A29F-7F33245D14B0}"/>
+    <hyperlink ref="I12" location="Software!A1" display="Other Software" xr:uid="{6D48D2BD-A81D-41A6-A29F-7F33245D14B0}"/>
     <hyperlink ref="A1" r:id="rId1" display="https://www.jenkins.io/" xr:uid="{3E7B1E85-45A6-4B7F-8C70-DADE2615BCF5}"/>
     <hyperlink ref="B1" r:id="rId2" display="https://hub.docker.com/" xr:uid="{F91CC9AF-9D27-4120-ABDF-3DAA5D3A0540}"/>
     <hyperlink ref="C1" r:id="rId3" display="https://www.elastic.co/" xr:uid="{4BF3C7CD-37E8-4990-B50F-B0AA27995967}"/>
@@ -1857,69 +1754,299 @@
     <hyperlink ref="E2" r:id="rId19" display="https://www.rust-lang.org/" xr:uid="{31F1428D-91BE-4E1E-8498-4229EFCDF440}"/>
     <hyperlink ref="C3" r:id="rId20" display="https://pusher.com/" xr:uid="{7C3CDB02-6919-4E87-A0F9-55BD4F0A908D}"/>
     <hyperlink ref="I11" r:id="rId21" display="https://build-your-own-x.vercel.app/" xr:uid="{42FD690D-C616-49BD-BA77-2B0CB6A5BDE7}"/>
-    <hyperlink ref="B5" r:id="rId22" display="https://zeplin.io/" xr:uid="{8EA3DE31-4C86-4A13-8C37-6F3A382CDF16}"/>
-    <hyperlink ref="C5" r:id="rId23" display="https://material-ui.com/" xr:uid="{2A281D4A-D8E9-4C90-AB52-2111AE0DEB23}"/>
-    <hyperlink ref="D5" r:id="rId24" display="https://dribbble.com/" xr:uid="{E58D1D30-C957-4340-81F7-9F01F135640E}"/>
-    <hyperlink ref="E5" r:id="rId25" display="https://codemyui.com/" xr:uid="{5B4A2141-C621-4E6C-A301-217163645D68}"/>
-    <hyperlink ref="F5" r:id="rId26" display="https://www.creative-tim.com/templates/flutter" xr:uid="{2911586A-4800-4D34-AF2A-196754F8EF76}"/>
-    <hyperlink ref="G5" r:id="rId27" display="https://icomoon.io/" xr:uid="{3A8C4CC8-0C66-4E99-A235-37A1F05C0762}"/>
-    <hyperlink ref="H5" r:id="rId28" display="https://fontawesome.com/" xr:uid="{8001446B-0F93-4A57-8F51-39F76B014F68}"/>
-    <hyperlink ref="A6" r:id="rId29" display="https://www.figma.com/" xr:uid="{90F3821A-0629-4665-A7CC-B08CA9824852}"/>
-    <hyperlink ref="B6" r:id="rId30" display="https://sass-lang.com/" xr:uid="{6EE1D0F2-A5C9-4767-8B70-ABFA413F8BA8}"/>
-    <hyperlink ref="C6" r:id="rId31" display="https://www.frontendmentor.io/" xr:uid="{B60D4251-B1EB-4FEB-8953-663DCC50F9A7}"/>
-    <hyperlink ref="D6" r:id="rId32" display="https://themeforest.net/" xr:uid="{9D070C9B-A21C-4100-A927-0B5D92E135EC}"/>
-    <hyperlink ref="E6" r:id="rId33" display="https://tailwindcss.com/docs" xr:uid="{77277A14-B688-4C98-87D1-04E090A5A61C}"/>
-    <hyperlink ref="F6" r:id="rId34" display="https://mdbootstrap.com/" xr:uid="{F9DED750-2E37-4BC7-9A31-965C8F7A075F}"/>
-    <hyperlink ref="G6" r:id="rId35" display="https://getbootstrap.com/" xr:uid="{9BAB0D38-E547-47C3-9AA9-6A5648663712}"/>
-    <hyperlink ref="H6" r:id="rId36" display="https://proto.io/" xr:uid="{A6CF53DC-1868-4E98-8E4C-DA132BD085D5}"/>
-    <hyperlink ref="G7" r:id="rId37" display="https://bulma.io/" xr:uid="{85A74973-A001-42DD-B946-16F74AA5A2A6}"/>
-    <hyperlink ref="A7" r:id="rId38" display="https://search.google.com/test/mobile-friendly" xr:uid="{2B5991D7-98EE-4C5F-8205-F56BFC40E559}"/>
-    <hyperlink ref="B7" r:id="rId39" display="https://www.logomaker.com/" xr:uid="{7F46DEA1-1F48-4EE9-97A6-0BE55F8D409C}"/>
-    <hyperlink ref="C7" r:id="rId40" display="https://animate.style/" xr:uid="{7572769C-AA1A-490B-8620-AAC195AE1218}"/>
-    <hyperlink ref="D7" r:id="rId41" location="EveningNight" display="https://uigradients.com/ - EveningNight" xr:uid="{24A14883-F186-4435-9FE3-E4D532A88C33}"/>
-    <hyperlink ref="E7" r:id="rId42" display="https://www.sketch.com/" xr:uid="{B06AD9DD-AEB6-4741-8392-AF45AF4A6A64}"/>
-    <hyperlink ref="F7" r:id="rId43" display="https://greensock.com/" xr:uid="{0774AAC7-BA9C-4316-94F4-8100D8CFCA0A}"/>
-    <hyperlink ref="A9" r:id="rId44" display="https://stackoverflow.com/" xr:uid="{16EA2AF4-4439-429E-B542-7607F7BB7819}"/>
-    <hyperlink ref="B9" r:id="rId45" display="https://www.tutorialspoint.com/index.htm" xr:uid="{09D69CF6-0447-4C34-B494-2C4043285EB3}"/>
-    <hyperlink ref="C9" r:id="rId46" display="https://egghead.io/" xr:uid="{C8CC39C2-700D-484F-9CC9-206C50AA21B9}"/>
-    <hyperlink ref="D9" r:id="rId47" display="https://www.programiz.com/" xr:uid="{7752618E-3326-45FF-A366-08D7E0F63AD4}"/>
-    <hyperlink ref="E9" r:id="rId48" display="https://www.javatpoint.com/" xr:uid="{736D958C-352D-4298-B057-624F86F96B0C}"/>
-    <hyperlink ref="F9" r:id="rId49" display="https://goalkicker.com/" xr:uid="{8E4DDCA7-D2AF-4E5C-A85D-1B955FBB5290}"/>
-    <hyperlink ref="G9" r:id="rId50" display="https://exercism.org/tracks" xr:uid="{F0A10DD1-E665-43B9-87AE-9BBC70376E10}"/>
-    <hyperlink ref="H9" r:id="rId51" display="https://www.computerscience.org/careers" xr:uid="{441D6B98-3851-4BB2-8529-6528FDC5C18E}"/>
-    <hyperlink ref="A10" r:id="rId52" display="https://refactoring.guru/design-patterns/php" xr:uid="{C415F922-5A58-43C4-8573-57A7908F38A6}"/>
-    <hyperlink ref="B10" r:id="rId53" display="https://www.developerdrive.com/" xr:uid="{F8CD949A-3C75-4681-B472-61FF5CE03BAC}"/>
-    <hyperlink ref="C10" r:id="rId54" display="https://www.patterns.dev/" xr:uid="{65910F9E-1989-4C3F-A34E-08318B0CA088}"/>
-    <hyperlink ref="D10" r:id="rId55" display="https://hackr.io/" xr:uid="{9685C4B9-B049-4583-ACC0-C0F9FC57BECD}"/>
-    <hyperlink ref="E10" r:id="rId56" display="https://beginnersbook.com/" xr:uid="{4CD25EDD-6BE6-43D5-B13D-4D300C41151A}"/>
-    <hyperlink ref="F10" r:id="rId57" display="https://dzone.com/" xr:uid="{D832834C-E87C-42FD-A1EA-39F2C9CFC2FF}"/>
-    <hyperlink ref="G10" r:id="rId58" display="https://www.freecodecamp.org/" xr:uid="{BCAE37E8-512C-45CF-B432-5A1FEE0CC745}"/>
-    <hyperlink ref="H10" r:id="rId59" display="https://www.algoexpert.io/product" xr:uid="{66DDDBDB-7862-4058-98D4-B532BE637B6D}"/>
-    <hyperlink ref="A11" r:id="rId60" display="https://stackshare.io/" xr:uid="{C382B2DA-8A91-4100-9552-C06D6C86D2BE}"/>
-    <hyperlink ref="B11" r:id="rId61" display="https://www.guru99.com/" xr:uid="{D5A8EBD3-D970-464C-981D-54EEFF23151E}"/>
-    <hyperlink ref="C11" r:id="rId62" display="https://hashnode.com/" xr:uid="{1025272B-B4BA-4D1E-A581-45B4AAB2CFC8}"/>
-    <hyperlink ref="D11" r:id="rId63" display="https://dailydevbytes.com/channel/blogs" xr:uid="{4B31A518-B32F-4358-84DF-83004002FAE0}"/>
-    <hyperlink ref="E11" r:id="rId64" display="https://www.indiehackers.com/" xr:uid="{90DF5C9A-C149-482B-BEA4-36D25A553432}"/>
-    <hyperlink ref="F11" r:id="rId65" display="https://app.daily.dev/" xr:uid="{53EA4024-B0C8-4EC4-9CCA-7825BADAD753}"/>
-    <hyperlink ref="G11" r:id="rId66" display="https://simpleprogrammer.com/" xr:uid="{42379C7F-8373-4802-A82C-770783206A0D}"/>
-    <hyperlink ref="H11" r:id="rId67" display="https://www.theodinproject.com/home" xr:uid="{E27B9287-9150-46FA-9F91-2C7C9C149D48}"/>
-    <hyperlink ref="A12" r:id="rId68" display="https://www.pramp.com/" xr:uid="{F1629C56-31E0-4F4B-895F-9DDDC64904A0}"/>
-    <hyperlink ref="B12" r:id="rId69" display="https://www.fullstack.cafe/" xr:uid="{73F59CBC-185E-4BDC-8C3B-FD6145AB643B}"/>
-    <hyperlink ref="C12" r:id="rId70" display="https://www.digitalocean.com/community" xr:uid="{89F33A1B-D934-4495-A2F6-9870A90E17C4}"/>
-    <hyperlink ref="D12" r:id="rId71" display="https://www.doctrine-project.org/" xr:uid="{FFA81CFF-4BFA-4736-B7D1-880CF857C7CD}"/>
-    <hyperlink ref="E12" r:id="rId72" display="https://www.geeksforgeeks.org/" xr:uid="{D0A509FC-5465-41FC-BAB9-8F0199EDFD2D}"/>
+    <hyperlink ref="A5" r:id="rId22" display="https://stackoverflow.com/" xr:uid="{16EA2AF4-4439-429E-B542-7607F7BB7819}"/>
+    <hyperlink ref="B5" r:id="rId23" display="https://www.tutorialspoint.com/index.htm" xr:uid="{09D69CF6-0447-4C34-B494-2C4043285EB3}"/>
+    <hyperlink ref="C5" r:id="rId24" display="https://egghead.io/" xr:uid="{C8CC39C2-700D-484F-9CC9-206C50AA21B9}"/>
+    <hyperlink ref="D5" r:id="rId25" display="https://www.programiz.com/" xr:uid="{7752618E-3326-45FF-A366-08D7E0F63AD4}"/>
+    <hyperlink ref="E5" r:id="rId26" display="https://www.javatpoint.com/" xr:uid="{736D958C-352D-4298-B057-624F86F96B0C}"/>
+    <hyperlink ref="F5" r:id="rId27" display="https://goalkicker.com/" xr:uid="{8E4DDCA7-D2AF-4E5C-A85D-1B955FBB5290}"/>
+    <hyperlink ref="G5" r:id="rId28" display="https://exercism.org/tracks" xr:uid="{F0A10DD1-E665-43B9-87AE-9BBC70376E10}"/>
+    <hyperlink ref="D8" r:id="rId29" display="https://www.computerscience.org/careers" xr:uid="{441D6B98-3851-4BB2-8529-6528FDC5C18E}"/>
+    <hyperlink ref="A6" r:id="rId30" display="https://refactoring.guru/design-patterns/php" xr:uid="{C415F922-5A58-43C4-8573-57A7908F38A6}"/>
+    <hyperlink ref="B6" r:id="rId31" display="https://www.developerdrive.com/" xr:uid="{F8CD949A-3C75-4681-B472-61FF5CE03BAC}"/>
+    <hyperlink ref="C6" r:id="rId32" display="https://www.patterns.dev/" xr:uid="{65910F9E-1989-4C3F-A34E-08318B0CA088}"/>
+    <hyperlink ref="D6" r:id="rId33" display="https://hackr.io/" xr:uid="{9685C4B9-B049-4583-ACC0-C0F9FC57BECD}"/>
+    <hyperlink ref="E8" r:id="rId34" display="https://beginnersbook.com/" xr:uid="{4CD25EDD-6BE6-43D5-B13D-4D300C41151A}"/>
+    <hyperlink ref="F6" r:id="rId35" display="https://dzone.com/" xr:uid="{D832834C-E87C-42FD-A1EA-39F2C9CFC2FF}"/>
+    <hyperlink ref="G6" r:id="rId36" display="https://www.freecodecamp.org/" xr:uid="{BCAE37E8-512C-45CF-B432-5A1FEE0CC745}"/>
+    <hyperlink ref="H6" r:id="rId37" display="https://www.algoexpert.io/product" xr:uid="{66DDDBDB-7862-4058-98D4-B532BE637B6D}"/>
+    <hyperlink ref="A7" r:id="rId38" display="https://stackshare.io/" xr:uid="{C382B2DA-8A91-4100-9552-C06D6C86D2BE}"/>
+    <hyperlink ref="B7" r:id="rId39" display="https://www.guru99.com/" xr:uid="{D5A8EBD3-D970-464C-981D-54EEFF23151E}"/>
+    <hyperlink ref="C7" r:id="rId40" display="https://hashnode.com/" xr:uid="{1025272B-B4BA-4D1E-A581-45B4AAB2CFC8}"/>
+    <hyperlink ref="D7" r:id="rId41" display="https://dailydevbytes.com/channel/blogs" xr:uid="{4B31A518-B32F-4358-84DF-83004002FAE0}"/>
+    <hyperlink ref="E7" r:id="rId42" display="https://www.indiehackers.com/" xr:uid="{90DF5C9A-C149-482B-BEA4-36D25A553432}"/>
+    <hyperlink ref="F7" r:id="rId43" display="https://app.daily.dev/" xr:uid="{53EA4024-B0C8-4EC4-9CCA-7825BADAD753}"/>
+    <hyperlink ref="G7" r:id="rId44" display="https://simpleprogrammer.com/" xr:uid="{42379C7F-8373-4802-A82C-770783206A0D}"/>
+    <hyperlink ref="H7" r:id="rId45" display="https://www.theodinproject.com/home" xr:uid="{E27B9287-9150-46FA-9F91-2C7C9C149D48}"/>
+    <hyperlink ref="A8" r:id="rId46" display="https://www.pramp.com/" xr:uid="{F1629C56-31E0-4F4B-895F-9DDDC64904A0}"/>
+    <hyperlink ref="B8" r:id="rId47" display="https://www.fullstack.cafe/" xr:uid="{73F59CBC-185E-4BDC-8C3B-FD6145AB643B}"/>
+    <hyperlink ref="E6" r:id="rId48" display="https://www.digitalocean.com/community" xr:uid="{89F33A1B-D934-4495-A2F6-9870A90E17C4}"/>
+    <hyperlink ref="C8" r:id="rId49" display="https://www.doctrine-project.org/" xr:uid="{FFA81CFF-4BFA-4736-B7D1-880CF857C7CD}"/>
+    <hyperlink ref="H5" r:id="rId50" display="https://www.geeksforgeeks.org/" xr:uid="{D0A509FC-5465-41FC-BAB9-8F0199EDFD2D}"/>
     <hyperlink ref="I10" location="'3D Priniting'!A1" display="3D Printing" xr:uid="{7C61BBEB-E024-472E-BA9A-009DD42130FE}"/>
-    <hyperlink ref="I12" location="Graphics!A1" display="Graphics" xr:uid="{67C2FAD7-DC93-42E0-8064-56B5608F2B23}"/>
-    <hyperlink ref="I2" location="'Problem Solving'!A1" display="'Problem Solving'!A1" xr:uid="{BBAA3EA4-E71D-44B4-ABB6-EB7A2503C124}"/>
-    <hyperlink ref="I1" location="Tips!A1" display="Tips" xr:uid="{940BB4A2-BBAE-40CF-ACD9-721619CA8388}"/>
-    <hyperlink ref="I4" location="CSS!A1" display="CSS" xr:uid="{68DF51BF-3398-4BFF-8D1B-14F06DFB6163}"/>
+    <hyperlink ref="I9" location="Graphics!A1" display="Graphics" xr:uid="{67C2FAD7-DC93-42E0-8064-56B5608F2B23}"/>
+    <hyperlink ref="I5" location="'Problem Solving'!A1" display="'Problem Solving'!A1" xr:uid="{BBAA3EA4-E71D-44B4-ABB6-EB7A2503C124}"/>
+    <hyperlink ref="I13" location="Tips!A1" display="Tips" xr:uid="{940BB4A2-BBAE-40CF-ACD9-721619CA8388}"/>
+    <hyperlink ref="I3" location="CSS!A1" display="CSS" xr:uid="{68DF51BF-3398-4BFF-8D1B-14F06DFB6163}"/>
+    <hyperlink ref="I1" location="'UI-UX'!A1" display="UI - UX" xr:uid="{594D8BC3-DE67-4364-9022-77D27E9275E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId73"/>
+  <pageSetup orientation="portrait" r:id="rId51"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944D90D9-B79E-4B38-906B-E7C0FA3A721E}">
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="65.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+    </row>
+    <row r="2" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+    </row>
+    <row r="3" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+    </row>
+    <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+    </row>
+    <row r="5" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A21" r:id="rId1" xr:uid="{41B87B05-920C-4A8F-B338-4F289D0F3967}"/>
+    <hyperlink ref="A1" r:id="rId2" xr:uid="{C46F0DFB-1FE5-4AF2-A145-119F42B20B26}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{C0AED85A-028F-4030-8CC7-0C8F8AA431BF}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{A8620F22-D3CD-482D-AD52-38EAEE207191}"/>
+    <hyperlink ref="A5" r:id="rId5" location="programming" xr:uid="{486689D9-7D68-4451-B397-355BD51B966B}"/>
+    <hyperlink ref="C2" r:id="rId6" xr:uid="{013F39A5-7DFB-4FB2-89DA-863CFB5E9546}"/>
+    <hyperlink ref="C1" r:id="rId7" display="Make Keywords Alert With Google" xr:uid="{291409F9-B366-4A9D-AFAB-16020AEA45EC}"/>
+    <hyperlink ref="C3" r:id="rId8" xr:uid="{D1FF7D4C-C3B8-481D-AF0B-41551AAD5A59}"/>
+    <hyperlink ref="A4" r:id="rId9" display="Preparing for the Systems" xr:uid="{AABDDB4C-0B25-45E1-B1D9-E99B1DEACFC8}"/>
+    <hyperlink ref="D1" location="Dashboard!A1" display="Back" xr:uid="{F9984E97-2FF1-49E3-8C27-D9F73D755B13}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE504DF1-2046-4C24-8338-36D31BC82292}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -2110,7 +2237,7 @@
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -2119,7 +2246,7 @@
     <row r="16" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="31" t="s">
         <v>65</v>
       </c>
       <c r="D16" s="8"/>
@@ -2129,7 +2256,7 @@
     <row r="17" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D17" s="8"/>
@@ -2139,7 +2266,7 @@
     <row r="18" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="31" t="s">
         <v>71</v>
       </c>
       <c r="D18" s="8"/>
@@ -2149,7 +2276,7 @@
     <row r="19" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="31" t="s">
         <v>74</v>
       </c>
       <c r="D19" s="8"/>
@@ -2159,7 +2286,7 @@
     <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="31" t="s">
         <v>76</v>
       </c>
       <c r="D20" s="8"/>
@@ -2194,7 +2321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A19292-1EE5-456C-BFD4-2A064F7E975B}">
   <dimension ref="A1:G1"/>
   <sheetViews>
@@ -2209,7 +2336,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>11</v>
@@ -2226,6 +2353,122 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C88D73-EAF2-466A-B8F2-2CB06EEB36D8}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.28515625" defaultRowHeight="81.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="25.28515625" style="53"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39"/>
+      <c r="B1" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" s="38"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="https://zeplin.io/" xr:uid="{8EA3DE31-4C86-4A13-8C37-6F3A382CDF16}"/>
+    <hyperlink ref="C1" r:id="rId2" display="https://material-ui.com/" xr:uid="{2A281D4A-D8E9-4C90-AB52-2111AE0DEB23}"/>
+    <hyperlink ref="D1" r:id="rId3" display="https://dribbble.com/" xr:uid="{E58D1D30-C957-4340-81F7-9F01F135640E}"/>
+    <hyperlink ref="E1" r:id="rId4" display="https://codemyui.com/" xr:uid="{5B4A2141-C621-4E6C-A301-217163645D68}"/>
+    <hyperlink ref="F1" r:id="rId5" display="https://www.creative-tim.com/templates/flutter" xr:uid="{2911586A-4800-4D34-AF2A-196754F8EF76}"/>
+    <hyperlink ref="G1" r:id="rId6" display="https://icomoon.io/" xr:uid="{3A8C4CC8-0C66-4E99-A235-37A1F05C0762}"/>
+    <hyperlink ref="H1" r:id="rId7" display="https://fontawesome.com/" xr:uid="{8001446B-0F93-4A57-8F51-39F76B014F68}"/>
+    <hyperlink ref="A2" r:id="rId8" display="https://www.figma.com/" xr:uid="{90F3821A-0629-4665-A7CC-B08CA9824852}"/>
+    <hyperlink ref="B2" r:id="rId9" display="https://sass-lang.com/" xr:uid="{6EE1D0F2-A5C9-4767-8B70-ABFA413F8BA8}"/>
+    <hyperlink ref="C2" r:id="rId10" display="https://www.frontendmentor.io/" xr:uid="{B60D4251-B1EB-4FEB-8953-663DCC50F9A7}"/>
+    <hyperlink ref="D2" r:id="rId11" display="https://themeforest.net/" xr:uid="{9D070C9B-A21C-4100-A927-0B5D92E135EC}"/>
+    <hyperlink ref="E2" r:id="rId12" display="https://tailwindcss.com/docs" xr:uid="{77277A14-B688-4C98-87D1-04E090A5A61C}"/>
+    <hyperlink ref="F2" r:id="rId13" display="https://mdbootstrap.com/" xr:uid="{F9DED750-2E37-4BC7-9A31-965C8F7A075F}"/>
+    <hyperlink ref="G2" r:id="rId14" display="https://getbootstrap.com/" xr:uid="{9BAB0D38-E547-47C3-9AA9-6A5648663712}"/>
+    <hyperlink ref="H2" r:id="rId15" display="https://proto.io/" xr:uid="{A6CF53DC-1868-4E98-8E4C-DA132BD085D5}"/>
+    <hyperlink ref="G3" r:id="rId16" display="https://bulma.io/" xr:uid="{85A74973-A001-42DD-B946-16F74AA5A2A6}"/>
+    <hyperlink ref="A3" r:id="rId17" display="https://search.google.com/test/mobile-friendly" xr:uid="{2B5991D7-98EE-4C5F-8205-F56BFC40E559}"/>
+    <hyperlink ref="B3" r:id="rId18" display="https://www.logomaker.com/" xr:uid="{7F46DEA1-1F48-4EE9-97A6-0BE55F8D409C}"/>
+    <hyperlink ref="C3" r:id="rId19" display="https://animate.style/" xr:uid="{7572769C-AA1A-490B-8620-AAC195AE1218}"/>
+    <hyperlink ref="D3" r:id="rId20" location="EveningNight" display="https://uigradients.com/ - EveningNight" xr:uid="{24A14883-F186-4435-9FE3-E4D532A88C33}"/>
+    <hyperlink ref="E3" r:id="rId21" display="https://www.sketch.com/" xr:uid="{B06AD9DD-AEB6-4741-8392-AF45AF4A6A64}"/>
+    <hyperlink ref="F3" r:id="rId22" display="https://greensock.com/" xr:uid="{0774AAC7-BA9C-4316-94F4-8100D8CFCA0A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECE076C-BE8B-4E45-A6A9-3829C5090764}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2307,7 +2550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0870F34A-33AD-43D9-9529-E493C8468E83}">
   <dimension ref="A1:H18"/>
   <sheetViews>
@@ -2439,22 +2682,22 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="47"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2573,7 +2816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBDEB62-6BA5-4C28-B051-2DE4BB52AF06}">
   <dimension ref="A1:I23"/>
   <sheetViews>
@@ -2593,13 +2836,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
@@ -2619,7 +2862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408A403A-76AA-44D6-B5E6-C307F1214717}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -2638,29 +2881,29 @@
   <sheetData>
     <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>198</v>
-      </c>
       <c r="C1" s="24" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D1" s="25"/>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="32" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -2668,18 +2911,18 @@
     <row r="3" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
-      <c r="C3" s="41"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="25"/>
-      <c r="E3" s="40" t="s">
-        <v>202</v>
+      <c r="E3" s="32" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -2693,32 +2936,32 @@
       <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
-        <v>213</v>
+      <c r="A6" s="34" t="s">
+        <v>211</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E7" s="25"/>
     </row>
@@ -2735,7 +2978,7 @@
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2767,7 +3010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544C6A15-C96E-48E1-98C3-0CE12224659F}">
   <dimension ref="A1:J12"/>
   <sheetViews>
@@ -2777,180 +3020,180 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.28515625" defaultRowHeight="64.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="28.28515625" style="53"/>
+    <col min="1" max="16384" width="28.28515625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="D1" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="E1" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+    </row>
+    <row r="2" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="B2" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-    </row>
-    <row r="2" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="C2" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="D2" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+    </row>
+    <row r="3" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+    </row>
+    <row r="4" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="B4" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-    </row>
-    <row r="3" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-    </row>
-    <row r="4" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="C4" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="D4" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="54" t="s">
-        <v>230</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>231</v>
-      </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
     </row>
     <row r="5" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
     </row>
     <row r="7" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
     </row>
     <row r="8" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
-        <v>218</v>
-      </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
+      <c r="A8" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
     </row>
     <row r="12" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2977,7 +3220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD1A4D8-C98B-42C3-92B7-1FF5A02E82A7}">
   <dimension ref="A1:L32"/>
   <sheetViews>
@@ -3219,7 +3462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548411AB-5CA4-4A69-A10D-C22AE534FF90}">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -3298,255 +3541,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944D90D9-B79E-4B38-906B-E7C0FA3A721E}">
-  <dimension ref="A1:P21"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="65.85546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="11" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-    </row>
-    <row r="2" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-    </row>
-    <row r="3" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-    </row>
-    <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-    </row>
-    <row r="5" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{41B87B05-920C-4A8F-B338-4F289D0F3967}"/>
-    <hyperlink ref="A1" r:id="rId2" xr:uid="{C46F0DFB-1FE5-4AF2-A145-119F42B20B26}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{C0AED85A-028F-4030-8CC7-0C8F8AA431BF}"/>
-    <hyperlink ref="A3" r:id="rId4" xr:uid="{A8620F22-D3CD-482D-AD52-38EAEE207191}"/>
-    <hyperlink ref="A5" r:id="rId5" location="programming" xr:uid="{486689D9-7D68-4451-B397-355BD51B966B}"/>
-    <hyperlink ref="C2" r:id="rId6" xr:uid="{013F39A5-7DFB-4FB2-89DA-863CFB5E9546}"/>
-    <hyperlink ref="C1" r:id="rId7" display="Make Keywords Alert With Google" xr:uid="{291409F9-B366-4A9D-AFAB-16020AEA45EC}"/>
-    <hyperlink ref="C3" r:id="rId8" xr:uid="{D1FF7D4C-C3B8-481D-AF0B-41551AAD5A59}"/>
-    <hyperlink ref="A4" r:id="rId9" display="Preparing for the Systems" xr:uid="{AABDDB4C-0B25-45E1-B1D9-E99B1DEACFC8}"/>
-    <hyperlink ref="D1" location="Dashboard!A1" display="Back" xr:uid="{F9984E97-2FF1-49E3-8C27-D9F73D755B13}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/HTML/P1 Excel.xlsx
+++ b/HTML/P1 Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 Islam\3 SOFT\QuickAccess\HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C8C3432-8FDC-4DF6-B248-3FCA46470AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58941424-741F-417D-97FB-5AA728B069EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="270">
   <si>
     <t>PHP Ref</t>
   </si>
@@ -411,9 +411,6 @@
   </si>
   <si>
     <t>AWS</t>
-  </si>
-  <si>
-    <t>Nodejs</t>
   </si>
   <si>
     <t>C++</t>
@@ -736,13 +733,127 @@
   </si>
   <si>
     <t xml:space="preserve">Geeks 4 Geeks </t>
+  </si>
+  <si>
+    <t>Mozilla JS</t>
+  </si>
+  <si>
+    <t>overapi Nodejs</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>babeljs</t>
+  </si>
+  <si>
+    <t>webpack</t>
+  </si>
+  <si>
+    <t>pugjs</t>
+  </si>
+  <si>
+    <t>gulpjs</t>
+  </si>
+  <si>
+    <t>elctronjs</t>
+  </si>
+  <si>
+    <t>reactnative</t>
+  </si>
+  <si>
+    <t>sequelize</t>
+  </si>
+  <si>
+    <t>loopback</t>
+  </si>
+  <si>
+    <t>reactivex</t>
+  </si>
+  <si>
+    <t>Redux</t>
+  </si>
+  <si>
+    <t>animejs</t>
+  </si>
+  <si>
+    <t>Jade</t>
+  </si>
+  <si>
+    <t>emberjs</t>
+  </si>
+  <si>
+    <t>inertiajs</t>
+  </si>
+  <si>
+    <t>gruntjs</t>
+  </si>
+  <si>
+    <t>mongoosejs</t>
+  </si>
+  <si>
+    <t>handlebarsjs</t>
+  </si>
+  <si>
+    <t>chartjs</t>
+  </si>
+  <si>
+    <t>jestjs</t>
+  </si>
+  <si>
+    <t>jquery</t>
+  </si>
+  <si>
+    <t>jsinfo</t>
+  </si>
+  <si>
+    <t>jstherightway</t>
+  </si>
+  <si>
+    <t>1loc</t>
+  </si>
+  <si>
+    <t>you dont know js</t>
+  </si>
+  <si>
+    <t>jasmine</t>
+  </si>
+  <si>
+    <t>javascript30</t>
+  </si>
+  <si>
+    <t>jsremote.jobs</t>
+  </si>
+  <si>
+    <t>NPM JS</t>
+  </si>
+  <si>
+    <t>Yarn PKG</t>
+  </si>
+  <si>
+    <t>Node JS</t>
+  </si>
+  <si>
+    <t>Express JS</t>
+  </si>
+  <si>
+    <t>React JS</t>
+  </si>
+  <si>
+    <t>Vue JS</t>
+  </si>
+  <si>
+    <t>Type Script</t>
+  </si>
+  <si>
+    <t>Next JS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -888,8 +999,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -938,8 +1064,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1014,14 +1146,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1079,9 +1254,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1140,36 +1312,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1178,6 +1320,66 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1462,266 +1664,266 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.140625" defaultRowHeight="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="25.140625" style="39"/>
-    <col min="9" max="9" width="21.7109375" style="39" customWidth="1"/>
-    <col min="10" max="16384" width="25.140625" style="39"/>
+    <col min="1" max="8" width="25.140625" style="37"/>
+    <col min="9" max="9" width="21.7109375" style="37" customWidth="1"/>
+    <col min="10" max="16384" width="25.140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="52" t="s">
-        <v>207</v>
+      <c r="I1" s="40" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="I2" s="52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="38" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="40" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="38"/>
+    </row>
+    <row r="5" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="J5" s="38"/>
+    </row>
+    <row r="6" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="38"/>
+    </row>
+    <row r="7" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" s="38"/>
+    </row>
+    <row r="8" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="38"/>
+    </row>
+    <row r="9" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="J9" s="38"/>
+    </row>
+    <row r="10" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="J10" s="38"/>
+    </row>
+    <row r="11" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="52" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="40"/>
-    </row>
-    <row r="5" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="I5" s="52" t="s">
-        <v>231</v>
-      </c>
-      <c r="J5" s="40"/>
-    </row>
-    <row r="6" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="G6" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="I6" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="40"/>
-    </row>
-    <row r="7" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="I7" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="J7" s="40"/>
-    </row>
-    <row r="8" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="40"/>
-    </row>
-    <row r="9" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I9" s="52" t="s">
-        <v>194</v>
-      </c>
-      <c r="J9" s="40"/>
-    </row>
-    <row r="10" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I10" s="52" t="s">
-        <v>193</v>
-      </c>
-      <c r="J10" s="40"/>
-    </row>
-    <row r="11" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I11" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="J11" s="40"/>
+      <c r="J11" s="38"/>
     </row>
     <row r="12" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="40" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="52" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="40"/>
+      <c r="J13" s="38"/>
     </row>
     <row r="14" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J14" s="40"/>
+      <c r="J14" s="38"/>
     </row>
     <row r="15" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J15" s="40"/>
+      <c r="J15" s="38"/>
     </row>
     <row r="16" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J16" s="40"/>
+      <c r="J16" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1805,227 +2007,227 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.85546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="11" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="65.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
     </row>
     <row r="2" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
     </row>
     <row r="3" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
     </row>
     <row r="5" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="27" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2056,254 +2258,254 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="61" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="50" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="51"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="19" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="19" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="19" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="31" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="31" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="31" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="31" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="31" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2335,10 +2537,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="A1" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2356,88 +2558,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C88D73-EAF2-466A-B8F2-2CB06EEB36D8}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.28515625" defaultRowHeight="81.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="25.28515625" style="53"/>
+    <col min="1" max="16384" width="25.28515625" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39"/>
-      <c r="B1" s="38" t="s">
+      <c r="A1" s="37"/>
+      <c r="B1" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="D1" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="F1" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="G1" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="H1" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="38" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="B2" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="C2" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="D2" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="E2" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="F2" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="G2" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="H2" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="H2" s="38" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="36" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="H3" s="38"/>
+      <c r="H3" s="36"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2483,51 +2683,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="I1" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="B2" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="20"/>
+      <c r="G2" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2560,230 +2760,230 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.28515625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="15.28515625" style="2"/>
+    <col min="1" max="1" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="15.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="6"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="6"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2818,47 +3018,280 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBDEB62-6BA5-4C28-B051-2DE4BB52AF06}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="63.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="19.42578125" style="53"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="5" t="s">
+    <row r="1" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="H1" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="I1" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="J1" s="54"/>
+      <c r="K1" s="62" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+    <row r="2" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>246</v>
+      </c>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+    </row>
+    <row r="6" spans="1:11" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="61"/>
+    </row>
+    <row r="7" spans="1:11" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+    </row>
+    <row r="8" spans="1:11" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+    </row>
+    <row r="10" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
         <v>105</v>
       </c>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="K10" s="54" t="s">
+        <v>261</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A22:E22"/>
+  <mergeCells count="4">
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A6:K6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I1" location="Dashboard!A1" display="Back" xr:uid="{149D3BCE-07DA-4B01-89CD-3789FCB3B100}"/>
-    <hyperlink ref="C23" r:id="rId1" xr:uid="{62DD907A-808B-45E7-8012-4447861C3085}"/>
-    <hyperlink ref="A1" r:id="rId2" display="https://overapi.com/nodejs" xr:uid="{4D97E5E6-8AA9-4562-B5E0-86FC08ADB7A2}"/>
+    <hyperlink ref="A10" r:id="rId1" xr:uid="{62DD907A-808B-45E7-8012-4447861C3085}"/>
+    <hyperlink ref="G4" r:id="rId2" display="https://overapi.com/nodejs" xr:uid="{4D97E5E6-8AA9-4562-B5E0-86FC08ADB7A2}"/>
+    <hyperlink ref="A1" r:id="rId3" xr:uid="{C07ADDBF-B8B8-4BF8-BA82-40C2A31EE589}"/>
+    <hyperlink ref="B1" r:id="rId4" display="NodeJS" xr:uid="{F42E2CA2-40F4-4527-90DD-E34D9F1267E5}"/>
+    <hyperlink ref="C1" r:id="rId5" display="expressjs" xr:uid="{00B0CB18-594B-4208-B2A0-417DCC6D19B1}"/>
+    <hyperlink ref="E1" r:id="rId6" display="reactjs" xr:uid="{DC3CE7E2-5E5D-4961-B060-423817A03278}"/>
+    <hyperlink ref="D1" r:id="rId7" xr:uid="{3950DA7F-E6CA-418E-B766-CF1C2C4DBAFD}"/>
+    <hyperlink ref="F1" r:id="rId8" display="vuejs" xr:uid="{6182F651-3165-4220-B0B1-C15A13F66934}"/>
+    <hyperlink ref="A4" r:id="rId9" xr:uid="{AAF5C530-2BC9-49AC-AE4E-4657BCC678AD}"/>
+    <hyperlink ref="B4" r:id="rId10" xr:uid="{6C13F7EB-DB34-422A-B4F6-D433330E9609}"/>
+    <hyperlink ref="C4" r:id="rId11" xr:uid="{F938EF98-CEE8-499A-85FB-C3041DB9F688}"/>
+    <hyperlink ref="D4" r:id="rId12" xr:uid="{5F52E507-E53C-47CB-8963-6BDADBA55494}"/>
+    <hyperlink ref="I1" r:id="rId13" xr:uid="{9A5BD845-0FA1-4E60-8496-CEA224C40B6C}"/>
+    <hyperlink ref="H1" r:id="rId14" display="nextjs" xr:uid="{65875F65-81FC-4B7D-AC54-64E1FF38FD3D}"/>
+    <hyperlink ref="A2" r:id="rId15" xr:uid="{6B2B96DB-563D-49CB-BC30-F75B9E27B9C3}"/>
+    <hyperlink ref="A8" r:id="rId16" xr:uid="{150DED1C-A969-4160-9DE5-192917A781F3}"/>
+    <hyperlink ref="H4" r:id="rId17" xr:uid="{43520F7B-FBCB-464A-B3E4-3AE0C5B6DF92}"/>
+    <hyperlink ref="B2" r:id="rId18" xr:uid="{A3D799B0-3DF8-4587-A3C2-938F09FF03F7}"/>
+    <hyperlink ref="E2" r:id="rId19" xr:uid="{FACD86EA-AE0D-4696-AC58-0334507A0E75}"/>
+    <hyperlink ref="G1" r:id="rId20" display="TypeSCript" xr:uid="{0CE3E3AE-75A5-4431-B7FF-F92F6905BDA1}"/>
+    <hyperlink ref="I4" r:id="rId21" xr:uid="{EA8FEC1D-5703-4DE1-931A-7602E8EB69CB}"/>
+    <hyperlink ref="F2" r:id="rId22" display="yarn pkg" xr:uid="{8A3673D9-756A-48D2-B8F5-DEA570A57B04}"/>
+    <hyperlink ref="E4" r:id="rId23" xr:uid="{E663D010-F72C-4212-9C31-E35D32B128C2}"/>
+    <hyperlink ref="F4" r:id="rId24" xr:uid="{CC392040-A3B6-48DB-95C1-BD3AF8987137}"/>
+    <hyperlink ref="G2" r:id="rId25" display="npmjs" xr:uid="{4540C1CC-0BEB-4E1E-992C-55DF1C3AEBD0}"/>
+    <hyperlink ref="A5" r:id="rId26" xr:uid="{C58E173B-D947-428B-8278-F28C4A5771C5}"/>
+    <hyperlink ref="B8" r:id="rId27" xr:uid="{A9B4BEE5-0B34-4264-AD14-9133F771B023}"/>
+    <hyperlink ref="B5" r:id="rId28" xr:uid="{BA8A11E5-561F-41ED-B3C9-4EE81D95B074}"/>
+    <hyperlink ref="D2" r:id="rId29" xr:uid="{34ABB2E2-0295-4BEA-A8AB-A5CC87203121}"/>
+    <hyperlink ref="C8" r:id="rId30" xr:uid="{111D519E-B5BF-4E38-A3C9-90C7D221ED61}"/>
+    <hyperlink ref="J10" r:id="rId31" xr:uid="{39A4022B-1EE6-4A47-AE0E-91A8FC98A2AC}"/>
+    <hyperlink ref="A7" r:id="rId32" xr:uid="{865C66EB-4941-43ED-A253-7A5C975DFD80}"/>
+    <hyperlink ref="B7" r:id="rId33" xr:uid="{2A366228-DEEC-465C-BE73-32060BAB71D9}"/>
+    <hyperlink ref="C7" r:id="rId34" xr:uid="{4EC11F02-F6C5-471F-9C62-6AED1818DCC9}"/>
+    <hyperlink ref="D7" r:id="rId35" xr:uid="{3F39B0D6-1957-4624-94FF-B9C5D1655B77}"/>
+    <hyperlink ref="D8" r:id="rId36" xr:uid="{30E64F8F-3483-4849-8B81-58D74EFEC709}"/>
+    <hyperlink ref="E7" r:id="rId37" xr:uid="{2BAFA16E-51D2-4120-AFDF-2C6A0B9CF045}"/>
+    <hyperlink ref="K10" r:id="rId38" xr:uid="{0281E289-2036-48A5-BFCF-9B66709AE023}"/>
+    <hyperlink ref="C2" r:id="rId39" xr:uid="{77263CCE-E0BF-4B03-9B21-36D69D90F336}"/>
+    <hyperlink ref="K1" location="Dashboard!A1" display="Back" xr:uid="{5C66A4B4-0888-42E9-99B6-F38A235AFD02}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
 
@@ -2872,113 +3305,113 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" style="15" customWidth="1"/>
-    <col min="5" max="16384" width="17.140625" style="15"/>
+    <col min="1" max="1" width="34.140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="17.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="B2" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="23"/>
-    </row>
-    <row r="2" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="B6" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="22" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-    </row>
-    <row r="3" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="32" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-    </row>
-    <row r="5" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="E6" s="25"/>
-    </row>
-    <row r="7" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="24" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3015,185 +3448,187 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.28515625" defaultRowHeight="64.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="28.28515625" style="36"/>
+    <col min="1" max="16384" width="28.28515625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="C1" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+    </row>
+    <row r="2" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-    </row>
-    <row r="2" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="B2" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="C2" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+    </row>
+    <row r="3" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+    </row>
+    <row r="4" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-    </row>
-    <row r="3" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-    </row>
-    <row r="4" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="B4" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="C4" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="D4" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="D4" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
-        <v>216</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
+      <c r="A8" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3214,6 +3649,7 @@
     <hyperlink ref="C4" r:id="rId12" xr:uid="{F3FD3167-8618-4E2D-8092-39F66DC3B051}"/>
     <hyperlink ref="D4" r:id="rId13" xr:uid="{7E44949E-94C5-4F56-A796-AB39F7CF7742}"/>
     <hyperlink ref="A8:D8" r:id="rId14" display="Does bootstrap have builtin padding and margin classes?" xr:uid="{687F7D5A-5D50-4B59-83EA-D654F9326B93}"/>
+    <hyperlink ref="G1" location="Dashboard!A1" display="Back" xr:uid="{127BF394-0040-4A94-BF44-92263775F507}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId15"/>
@@ -3230,224 +3666,224 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="11"/>
-    <col min="3" max="3" width="48" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="11"/>
-    <col min="6" max="6" width="18.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="18.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="10"/>
+    <col min="3" max="3" width="48" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="10"/>
+    <col min="6" max="6" width="18.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="K1" s="48" t="s">
+      <c r="F1" s="11"/>
+      <c r="K1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="49"/>
+      <c r="L1" s="50"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="G9" s="13" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="G9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="13"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="G10" s="13" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="G10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="G11" s="13" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="G11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="10"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="10"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="10"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="10"/>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="10"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="10"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="10"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="10"/>
+      <c r="C32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3476,62 +3912,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>57</v>
       </c>
     </row>
